--- a/data/hotels_by_city/Houston/Houston_shard_220.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_220.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107990-Reviews-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
   </si>
   <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Greenway-Plaza.h126962.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1853 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r596881010-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107990</t>
+  </si>
+  <si>
+    <t>596881010</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Very Unhappy</t>
+  </si>
+  <si>
+    <t>I did the priceline express deal, I had seen this hotel when I was looking around online and it looked nice, so I was cool with getting it. That was until I got here, I was very wrong. Sheets were disgusting and stained, trash everywhere on the floor, floors were sticky, tv didn't work, lights wouldn't turn off... it was non refundable, so I was forced to stay my entire stay, but I would have preferred to take my business elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I did the priceline express deal, I had seen this hotel when I was looking around online and it looked nice, so I was cool with getting it. That was until I got here, I was very wrong. Sheets were disgusting and stained, trash everywhere on the floor, floors were sticky, tv didn't work, lights wouldn't turn off... it was non refundable, so I was forced to stay my entire stay, but I would have preferred to take my business elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r594451978-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>594451978</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Say Elsewhere</t>
+  </si>
+  <si>
+    <t>Very outdated, peeling paint, dirty. Room was not ready when we arrived at 10pm. Problems with the reservation. First room they took us to was not cleaned, bed looked like it had just been slept in. Second room was better, but still not clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Very outdated, peeling paint, dirty. Room was not ready when we arrived at 10pm. Problems with the reservation. First room they took us to was not cleaned, bed looked like it had just been slept in. Second room was better, but still not clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r593554521-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593554521</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>Toni is great the ppl here are great clean rooms Toni is every respectful &amp; helpful I would for sure stay again With the great staff to help me It's in a great location lots a great food near and barsMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Toni is great the ppl here are great clean rooms Toni is every respectful &amp; helpful I would for sure stay again With the great staff to help me It's in a great location lots a great food near and barsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r590947328-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590947328</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Excellent location between the medical center and downtown. The works to upgrade this location help to make the new stay better than the last. It is a great place to find assistance from the staff and enjoy Houston when on a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Excellent location between the medical center and downtown. The works to upgrade this location help to make the new stay better than the last. It is a great place to find assistance from the staff and enjoy Houston when on a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r589471293-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589471293</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Sherocks</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and helpful! We initially booked a queen suite. And staff recommended the King suite to better accommodate my husband and I plus our two small children. Thank you Mr Abraham for your excellent service. We have enjoyed our stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>The staff is very friendly and helpful! We initially booked a queen suite. And staff recommended the King suite to better accommodate my husband and I plus our two small children. Thank you Mr Abraham for your excellent service. We have enjoyed our stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r584435902-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584435902</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>This hotel has a nice and well educated staff. The team has been helpful all the time. It has a great location, between Midtown and Uptown. Close to everything I needed. Calm hotel. Fair price.  Whenever I come back to Houston, I may be there once again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has a nice and well educated staff. The team has been helpful all the time. It has a great location, between Midtown and Uptown. Close to everything I needed. Calm hotel. Fair price.  Whenever I come back to Houston, I may be there once again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r582068161-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582068161</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel we call home.</t>
+  </si>
+  <si>
+    <t>Due to needing to come to M D Anderson in Houston for 12 weeks my wife choose the Extended Stay America- Greenway Plaza and what a right choice it was. The Mgr. and his staff are fantastic, friendly,  helpful and caring. I would recommend anyone to stay at this hotel for any number of days.Neal and LeAnn ValentaMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Due to needing to come to M D Anderson in Houston for 12 weeks my wife choose the Extended Stay America- Greenway Plaza and what a right choice it was. The Mgr. and his staff are fantastic, friendly,  helpful and caring. I would recommend anyone to stay at this hotel for any number of days.Neal and LeAnn ValentaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r579244603-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579244603</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Just About Everything I Needed On This Trip!</t>
+  </si>
+  <si>
+    <t>For this business trip, the location had just about everything I needed. I know it's not their business model, but I would have liked to have some more 'hotel type' things in my room (coffee maker, tissues, refrigerator, etc.) Very convenient to my business location; lots of good nearby restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>For this business trip, the location had just about everything I needed. I know it's not their business model, but I would have liked to have some more 'hotel type' things in my room (coffee maker, tissues, refrigerator, etc.) Very convenient to my business location; lots of good nearby restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r577925882-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577925882</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Perfect Location!</t>
+  </si>
+  <si>
+    <t>The location is perfect for getting anywhere in Houston!!  We were in town to see Hamilton and this was centrally located for everything we did while in town!!  Very nice staff, very secure hotel (key access only after 8:30 p.m.).MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>The location is perfect for getting anywhere in Houston!!  We were in town to see Hamilton and this was centrally located for everything we did while in town!!  Very nice staff, very secure hotel (key access only after 8:30 p.m.).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r569170132-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569170132</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Oustanding Team</t>
+  </si>
+  <si>
+    <t>I feel completely at Home here. The staff is Outstanding! They go out of their way to make certain your stay is pleasant and enjoyable. Abraham, Stacy, Tony &amp; Byron are the definition of Teamwork. The hotel is centrally located with easy access to the freeway with Downtown, Medical Center, Museum District just minutes away and several restaurants within walking distance. I highly recommend this hotel as an outstanding place to stay on business or leisure travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2018</t>
+  </si>
+  <si>
+    <t>I feel completely at Home here. The staff is Outstanding! They go out of their way to make certain your stay is pleasant and enjoyable. Abraham, Stacy, Tony &amp; Byron are the definition of Teamwork. The hotel is centrally located with easy access to the freeway with Downtown, Medical Center, Museum District just minutes away and several restaurants within walking distance. I highly recommend this hotel as an outstanding place to stay on business or leisure travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r567932223-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567932223</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>OK Place, But Feel Ripped Off Due To Price</t>
+  </si>
+  <si>
+    <t>An older establishment, but pretty well kept up. Room was clean and everything worked. Staff was friendly. Breakfast consisted of packaged muffins, granola bars and coffee. Coffee was good, but the only creamer available was flavored liquid stuff, which I don't care for so made coffee in the room with what we brought with us. We had a medical appointment at MD Anderson and this place was fairly close (not walking distance though). So why do I feel ripped off due to the price? Turns out the Houston Rodeo was going on when we had to be there, this was about the only hotel with an available room and the rate went from the normal $85 to $150 plus $25 in taxes - $175! I understand a business taking advantage of special events, but the room was barely worth $85 and certainly not worth $175! Probably will not stay here again because of what I consider price gouging.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>An older establishment, but pretty well kept up. Room was clean and everything worked. Staff was friendly. Breakfast consisted of packaged muffins, granola bars and coffee. Coffee was good, but the only creamer available was flavored liquid stuff, which I don't care for so made coffee in the room with what we brought with us. We had a medical appointment at MD Anderson and this place was fairly close (not walking distance though). So why do I feel ripped off due to the price? Turns out the Houston Rodeo was going on when we had to be there, this was about the only hotel with an available room and the rate went from the normal $85 to $150 plus $25 in taxes - $175! I understand a business taking advantage of special events, but the room was barely worth $85 and certainly not worth $175! Probably will not stay here again because of what I consider price gouging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r567735996-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567735996</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Visiting the Texas Medical Center</t>
+  </si>
+  <si>
+    <t>As a visiting Medical Doctor, I would recommend this place for its convenience. The staff welcomes visiting patients as well as business people. It is a well-deserved location. With some diet obligation, it is good to combine to do some cooking yourself and go to the nice restaurants close by at your convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>As a visiting Medical Doctor, I would recommend this place for its convenience. The staff welcomes visiting patients as well as business people. It is a well-deserved location. With some diet obligation, it is good to combine to do some cooking yourself and go to the nice restaurants close by at your convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r564797189-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564797189</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>location was great for everything i needed i felt safe front desk was great room was good no complaints on my end at all. i will stay again when i need that area.easy check in and out especially with my fema voucher was treated like any other paying customerMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2018</t>
+  </si>
+  <si>
+    <t>location was great for everything i needed i felt safe front desk was great room was good no complaints on my end at all. i will stay again when i need that area.easy check in and out especially with my fema voucher was treated like any other paying customerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r560564986-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560564986</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>very satisfied</t>
+  </si>
+  <si>
+    <t>location was near our destination; and there were lots of options in proximity for eating, shopping, gas, etc....friendly and helpful front desk associates. the room was very clean and comfortable and everything was in working orderMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>location was near our destination; and there were lots of options in proximity for eating, shopping, gas, etc....friendly and helpful front desk associates. the room was very clean and comfortable and everything was in working orderMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r557814476-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557814476</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Tried and sleepy</t>
+  </si>
+  <si>
+    <t>Really was tried and my room was clean and was in an area that was quite, I was able to go to sleep. Upon checking in he asked question that made it possible for me to have my room in the area it was in.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Really was tried and my room was clean and was in an area that was quite, I was able to go to sleep. Upon checking in he asked question that made it possible for me to have my room in the area it was in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r546588480-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546588480</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>room ok ..parking lot not</t>
+  </si>
+  <si>
+    <t>Stayed here because it was near my doctors office. The room was clean except I saw hair in the bathroom. Fairly clean. The area for the coffee and breakfast was always a mess,I even saw a homeless man with a blanket come in and get coffee and food. Lots of trash in the parking lot along with people sitting in their trucks for long periods, kinda iffy. Not sure if I will stay here again. The elevator was not working so I had to drag my bags up to 3rd floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here because it was near my doctors office. The room was clean except I saw hair in the bathroom. Fairly clean. The area for the coffee and breakfast was always a mess,I even saw a homeless man with a blanket come in and get coffee and food. Lots of trash in the parking lot along with people sitting in their trucks for long periods, kinda iffy. Not sure if I will stay here again. The elevator was not working so I had to drag my bags up to 3rd floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r544350757-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544350757</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Very Satisfied with the Hospitality</t>
+  </si>
+  <si>
+    <t>Very satisfied with the hospitality and response of the manager Abharam. He was really helpful and provided prompt response to every single question. Also, the hotel was clean and I faced no issues during my stay of 1+ month.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Very satisfied with the hospitality and response of the manager Abharam. He was really helpful and provided prompt response to every single question. Also, the hotel was clean and I faced no issues during my stay of 1+ month.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r536079984-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536079984</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay Houston Greenway</t>
+  </si>
+  <si>
+    <t>Good value hotel for extended stays.  Some safety concerns regarding the area and hotel access.  The staff was friendly and the room was clean.  Fairly quiet hotel.  Plenty of on-site parking. Located right along a freeway which might bother some people.  Some restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Good value hotel for extended stays.  Some safety concerns regarding the area and hotel access.  The staff was friendly and the room was clean.  Fairly quiet hotel.  Plenty of on-site parking. Located right along a freeway which might bother some people.  Some restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r526409407-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526409407</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>A smile at reception makes all the difference.</t>
+  </si>
+  <si>
+    <t>Receptionist Toni was very helpful in getting all of my needs met: check-in, utensils, a chair which had been missing from my room, internet, and pointing out where nearby restaurants were.  The room was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2017</t>
+  </si>
+  <si>
+    <t>Receptionist Toni was very helpful in getting all of my needs met: check-in, utensils, a chair which had been missing from my room, internet, and pointing out where nearby restaurants were.  The room was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r507766320-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507766320</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>OK room</t>
+  </si>
+  <si>
+    <t>Room was well pricesd but the room was not as clean as expected.  I will give the chain another chance in case the issue was this hotel at another location.  Overall the stay was just OK and I will give them another chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Room was well pricesd but the room was not as clean as expected.  I will give the chain another chance in case the issue was this hotel at another location.  Overall the stay was just OK and I will give them another chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r505341166-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505341166</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Fantastic room and excellent service</t>
+  </si>
+  <si>
+    <t>The Extended Stay America- Greenway Plaza- Houston is excellent if you opt to stay in a hotel. It has nice big clean rooms with excellent staff and a very efficient General Manager Mr.Abraham Vargis. He helped us settle well in our rooms and offered to help for any needs further. The hotel itself was very neat, nicely managed and spotless. I would definitely recommend to opt for this hotel ! They are very amicable and responsible staff who take care of their valuable guests!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>The Extended Stay America- Greenway Plaza- Houston is excellent if you opt to stay in a hotel. It has nice big clean rooms with excellent staff and a very efficient General Manager Mr.Abraham Vargis. He helped us settle well in our rooms and offered to help for any needs further. The hotel itself was very neat, nicely managed and spotless. I would definitely recommend to opt for this hotel ! They are very amicable and responsible staff who take care of their valuable guests!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r496732492-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496732492</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Avoid at all costs - you deserve better!</t>
+  </si>
+  <si>
+    <t>As I walked up to check in, I noticed that every trash can on the property was overflowing, the front doors were filthy, and there were spots of what appeared to be urine on the entryway floor. That sets the tone for the rest of the space, which smelled terrible, was filthy, and ultimately was somewhere I could not even make myself stay for a night, let alone 3. I cancelled my reservation after trying unsuccessfully to air out my room for 3 hours, booked a beautiful room at a 4 Star Hotel thru Hotwire, and paid $30 less per night to enjoy a beautiful, clean space that smells great and has a view of the city. I will not stay in this specific Extended Stay hotel (Greenway/Upper Kirby in Houston) after my brief experience there, and am unlikely to even give the brand another chance. There's much better out there, so keep looking.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>As I walked up to check in, I noticed that every trash can on the property was overflowing, the front doors were filthy, and there were spots of what appeared to be urine on the entryway floor. That sets the tone for the rest of the space, which smelled terrible, was filthy, and ultimately was somewhere I could not even make myself stay for a night, let alone 3. I cancelled my reservation after trying unsuccessfully to air out my room for 3 hours, booked a beautiful room at a 4 Star Hotel thru Hotwire, and paid $30 less per night to enjoy a beautiful, clean space that smells great and has a view of the city. I will not stay in this specific Extended Stay hotel (Greenway/Upper Kirby in Houston) after my brief experience there, and am unlikely to even give the brand another chance. There's much better out there, so keep looking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r494647891-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494647891</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Great time! Other than the AC going out on our last 2 nights, I would say I will definitely stay there again! Very close to where I was going to be the whole weekend. Room was clean and organized. Great service overall!  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Great time! Other than the AC going out on our last 2 nights, I would say I will definitely stay there again! Very close to where I was going to be the whole weekend. Room was clean and organized. Great service overall!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r488073750-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488073750</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Making the most of bad</t>
+  </si>
+  <si>
+    <t>We compared alot of hotels from hotel tonight, hotel.com, several other discount travel. This hotel was the winner of our couples weekend. From the time we walked in the door this place is dirty. We get to our rooms and it is gross. Looks like someone put white spray paint on the black head board. There is hair in the sheets. The tup drain is broken and tub is dirty. Unfortunately this is our first night in Houston and we are dreading going back to our room....no getting romantic in this place. We will be going to the local walmart for fresh blanket.. pillows..towels and shower shoes.  extremely disappointed. Will post pictures later. Pray for us. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>We compared alot of hotels from hotel tonight, hotel.com, several other discount travel. This hotel was the winner of our couples weekend. From the time we walked in the door this place is dirty. We get to our rooms and it is gross. Looks like someone put white spray paint on the black head board. There is hair in the sheets. The tup drain is broken and tub is dirty. Unfortunately this is our first night in Houston and we are dreading going back to our room....no getting romantic in this place. We will be going to the local walmart for fresh blanket.. pillows..towels and shower shoes.  extremely disappointed. Will post pictures later. Pray for us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r477706337-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477706337</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Good value!</t>
+  </si>
+  <si>
+    <t>We visited with relatives and attended an Astro game in Houston.  This hotel was a great price near both. The staff was very friendly and attentive and the room was clean and comfortable. I will definitely book at this hotel in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2017</t>
+  </si>
+  <si>
+    <t>We visited with relatives and attended an Astro game in Houston.  This hotel was a great price near both. The staff was very friendly and attentive and the room was clean and comfortable. I will definitely book at this hotel in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r462585234-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462585234</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Awful and dirty</t>
+  </si>
+  <si>
+    <t>I recently stayed here with my life partner. When i first came to the room it smelled disgusting! Like a combination of animal, smoke, mold/dirt. The AC was not even cold but kept blowing warm air regardless of how far down the thermostat was turned. Both were reported to the front desk and neither were addressed. I asked for a bottle of fabreeze and uses 2/3 of the whole bottle. I was not asked if i needed anything else and should have been asked about the AC issues. When i requested extra washcloths, i was told "no" and that the old used dirty ones would have to be turned in first!!! The front also failed to offer me dishes for the kitchenette. When my life partner returned from work, the room was unbearably warm and he requested something to be done about the AC or possibly get another room. We were told there were no more rooms, they would call maintenance but maintenance could not not there until the morning and we could get a partial refund for the following night(we booked 2 nights). So we had to sleep in the awful hot stinky dirty room. Oh, and the toilet did not flush part of the time. We had to jimmy it to get it to work. The next day, I spoke with the manager who still said he didn't want to move us to another room unless the AC...I recently stayed here with my life partner. When i first came to the room it smelled disgusting! Like a combination of animal, smoke, mold/dirt. The AC was not even cold but kept blowing warm air regardless of how far down the thermostat was turned. Both were reported to the front desk and neither were addressed. I asked for a bottle of fabreeze and uses 2/3 of the whole bottle. I was not asked if i needed anything else and should have been asked about the AC issues. When i requested extra washcloths, i was told "no" and that the old used dirty ones would have to be turned in first!!! The front also failed to offer me dishes for the kitchenette. When my life partner returned from work, the room was unbearably warm and he requested something to be done about the AC or possibly get another room. We were told there were no more rooms, they would call maintenance but maintenance could not not there until the morning and we could get a partial refund for the following night(we booked 2 nights). So we had to sleep in the awful hot stinky dirty room. Oh, and the toilet did not flush part of the time. We had to jimmy it to get it to work. The next day, I spoke with the manager who still said he didn't want to move us to another room unless the AC couldn't be fixed. Clearly we had BEEN READY to go to another room. The maintenance man however was great! His name was Hugo. A blessing! Good energy. He made sure our concerns were addressed and moved us to a much better room. Cool AC. Working toilet, no smell, more furniture room. And we could tell it had been empty for a while and they could have moves us the night before! Hugo was the only good thing about that hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed here with my life partner. When i first came to the room it smelled disgusting! Like a combination of animal, smoke, mold/dirt. The AC was not even cold but kept blowing warm air regardless of how far down the thermostat was turned. Both were reported to the front desk and neither were addressed. I asked for a bottle of fabreeze and uses 2/3 of the whole bottle. I was not asked if i needed anything else and should have been asked about the AC issues. When i requested extra washcloths, i was told "no" and that the old used dirty ones would have to be turned in first!!! The front also failed to offer me dishes for the kitchenette. When my life partner returned from work, the room was unbearably warm and he requested something to be done about the AC or possibly get another room. We were told there were no more rooms, they would call maintenance but maintenance could not not there until the morning and we could get a partial refund for the following night(we booked 2 nights). So we had to sleep in the awful hot stinky dirty room. Oh, and the toilet did not flush part of the time. We had to jimmy it to get it to work. The next day, I spoke with the manager who still said he didn't want to move us to another room unless the AC...I recently stayed here with my life partner. When i first came to the room it smelled disgusting! Like a combination of animal, smoke, mold/dirt. The AC was not even cold but kept blowing warm air regardless of how far down the thermostat was turned. Both were reported to the front desk and neither were addressed. I asked for a bottle of fabreeze and uses 2/3 of the whole bottle. I was not asked if i needed anything else and should have been asked about the AC issues. When i requested extra washcloths, i was told "no" and that the old used dirty ones would have to be turned in first!!! The front also failed to offer me dishes for the kitchenette. When my life partner returned from work, the room was unbearably warm and he requested something to be done about the AC or possibly get another room. We were told there were no more rooms, they would call maintenance but maintenance could not not there until the morning and we could get a partial refund for the following night(we booked 2 nights). So we had to sleep in the awful hot stinky dirty room. Oh, and the toilet did not flush part of the time. We had to jimmy it to get it to work. The next day, I spoke with the manager who still said he didn't want to move us to another room unless the AC couldn't be fixed. Clearly we had BEEN READY to go to another room. The maintenance man however was great! His name was Hugo. A blessing! Good energy. He made sure our concerns were addressed and moved us to a much better room. Cool AC. Working toilet, no smell, more furniture room. And we could tell it had been empty for a while and they could have moves us the night before! Hugo was the only good thing about that hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r458485514-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458485514</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Great Inexpensive Superbowl Accommodation</t>
+  </si>
+  <si>
+    <t>The place was clean and cheap. Staff was very nice. Small breakfast setup in the morning is nice. Right next to the highway so avoid that end of the hotel for noise reasons. You can walk around the corner five minutes and find decent restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>The place was clean and cheap. Staff was very nice. Small breakfast setup in the morning is nice. Right next to the highway so avoid that end of the hotel for noise reasons. You can walk around the corner five minutes and find decent restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r447817004-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447817004</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>Great Staff 🙂</t>
+  </si>
+  <si>
+    <t>The young lady Stacey at the front desk was very friendly and helpful and resourceful. She made sure my stay was comfortable and accommodating. Great for a bodybuilder like me who travels and cooks his meals. Grocery stores were also reasonably close.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>The young lady Stacey at the front desk was very friendly and helpful and resourceful. She made sure my stay was comfortable and accommodating. Great for a bodybuilder like me who travels and cooks his meals. Grocery stores were also reasonably close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r447618114-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447618114</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>I enjoyed this place at first because of its very nice staff and secondly because of its facilities. The rooms have a small kitchen with dishes, microwave, refrigerator and cooking heater. You can cook if you wish. There is clothes cleaner and dryer machines at the first floor so you can easily  wash and dry your clothes. The staph made a ceremony with pizza, snacks and soft drinks because of the new near at last night of 2016 which I really enjoyed it. MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed this place at first because of its very nice staff and secondly because of its facilities. The rooms have a small kitchen with dishes, microwave, refrigerator and cooking heater. You can cook if you wish. There is clothes cleaner and dryer machines at the first floor so you can easily  wash and dry your clothes. The staph made a ceremony with pizza, snacks and soft drinks because of the new near at last night of 2016 which I really enjoyed it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r446457672-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446457672</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>JORDAN IS AWESOME</t>
+  </si>
+  <si>
+    <t>everthing was nice, great pricing... Jordan was the most awesome! Good location for food fun and shopping. I would recommend this hotel to anyone whos traveling and in need of a home away from home environment!MoreShow less</t>
+  </si>
+  <si>
+    <t>everthing was nice, great pricing... Jordan was the most awesome! Good location for food fun and shopping. I would recommend this hotel to anyone whos traveling and in need of a home away from home environment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r439172715-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439172715</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Jordon was amazing!</t>
+  </si>
+  <si>
+    <t>Jordon at the front desk is the reason for the five star rating. She provided excellent customer hospitality and had the most wonderful personality. She made our stay very pleasant and her service made up for what the hotel lacked in amenities. Great service at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Jordon at the front desk is the reason for the five star rating. She provided excellent customer hospitality and had the most wonderful personality. She made our stay very pleasant and her service made up for what the hotel lacked in amenities. Great service at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r439017867-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439017867</t>
+  </si>
+  <si>
+    <t>gross and cheap</t>
+  </si>
+  <si>
+    <t>Maybe it's a Houston thing, but in other states I visited, for the same price you can get a hospital-clean room. This room was stinking, everything was really old and scraped, the bed sheets were hard and smelled like a soviet train. Out of the toiletries, there was one bottle of hair conditioner. Who took the shampoo remains unknown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Maybe it's a Houston thing, but in other states I visited, for the same price you can get a hospital-clean room. This room was stinking, everything was really old and scraped, the bed sheets were hard and smelled like a soviet train. Out of the toiletries, there was one bottle of hair conditioner. Who took the shampoo remains unknown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r377199207-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377199207</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Shower did not work, breakfast was very minimal...all prepackaged food except fruit</t>
+  </si>
+  <si>
+    <t>Checkin was very good.  Location is on a freeway frontage road.  Requested room in rear so noise was minimal.  Bed was as good as most places but not great.  Room was small but adequate for overnight stay.  I expected minimal kitchenware at this hotel and found none.  Guest must request kitchen/cookware package and one will brought to room.  This ensures cleanliness of items (a constant problem) and accountability if items in room upon checkout.  Had a long day planned so got up early and found the tub faucet diverter valve ions...no way to take a shower and desk isn't manned until 0800.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r339259404-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339259404</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Service and a clean room</t>
+  </si>
+  <si>
+    <t>This Extended Stay is a run of the mill ESA hotel.  Our room was clean.  They have a grab and go breakfast that consists of coffee, instant make youeself oatmeal, granola bars, muffins and apples.  There is also free wifi like usual.  The difference is the people.  When I checked in, Priceline had set my reservation for one queen bed.  I didn't have control of this because I named my own price.  Abraham helped me and said he could get me into a room with two beds just not that night.  They were sold out.  He said I could come down tomorrow and switch rooms.  The next day I came down, before I went to work, to switch rooms.  Unfortunately the room he would ultimately move me to was not clean yet.  Since I had to get to work, he was kind enough to let me keep my bags behind the front desk and even moved them into the new room for me when it was clean.  I came back to the hotel after work and it was all taken care of.  This was above what he had to do but it's going that extra bit that makes happy customers and I highly appriciate it!!!Pros:Simple breakfastFree WiFiClean roomCons:Close to interstate so little noisy (ask for room on north side of billing to help)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>This Extended Stay is a run of the mill ESA hotel.  Our room was clean.  They have a grab and go breakfast that consists of coffee, instant make youeself oatmeal, granola bars, muffins and apples.  There is also free wifi like usual.  The difference is the people.  When I checked in, Priceline had set my reservation for one queen bed.  I didn't have control of this because I named my own price.  Abraham helped me and said he could get me into a room with two beds just not that night.  They were sold out.  He said I could come down tomorrow and switch rooms.  The next day I came down, before I went to work, to switch rooms.  Unfortunately the room he would ultimately move me to was not clean yet.  Since I had to get to work, he was kind enough to let me keep my bags behind the front desk and even moved them into the new room for me when it was clean.  I came back to the hotel after work and it was all taken care of.  This was above what he had to do but it's going that extra bit that makes happy customers and I highly appriciate it!!!Pros:Simple breakfastFree WiFiClean roomCons:Close to interstate so little noisy (ask for room on north side of billing to help)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r328038886-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328038886</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>This hotel is cheaper than most, but you get what you pay for</t>
+  </si>
+  <si>
+    <t>This is a poorly maintained hotel in need of extensive renovation and deep cleaning. I stayed one night.  I was traveling with my two small dogs (which was known to the hotel and was shown in my reservation) and was prepared for a $25 pet fee, but upon arrival I was told the fee was $25 per night per pet, i.e., $50 for the one night. I found this fee outrageous and not appropriate for a hotel on the low end.  They advertised a free breakfast, but when I came to the lobby to find the breakfast all I saw were some muffins and a couple of coffee decanters.  I asked the desk clerk where was the breakfast? He pointed to the muffin and coffee set-up and said, "Right there."  I said, I thought you advertised that you served breakfast? He responded, "That's our breakfast.  It's a 'grab and go' breakfast."  Though this was a suites hotel (i.e., each room had a tiny, old kitchen area), there were no plates, no utensils, no pots or pans (i.e., all the cupboards were totally empty).  The air conditioning is from large window units that blow away the curtains.  For me, this was just an overnight stay on a road trip, and for that it was okay based on the price, but I would not stay here if my destination were Houston.   Wifi is free, but the free level is slow, and the...This is a poorly maintained hotel in need of extensive renovation and deep cleaning. I stayed one night.  I was traveling with my two small dogs (which was known to the hotel and was shown in my reservation) and was prepared for a $25 pet fee, but upon arrival I was told the fee was $25 per night per pet, i.e., $50 for the one night. I found this fee outrageous and not appropriate for a hotel on the low end.  They advertised a free breakfast, but when I came to the lobby to find the breakfast all I saw were some muffins and a couple of coffee decanters.  I asked the desk clerk where was the breakfast? He pointed to the muffin and coffee set-up and said, "Right there."  I said, I thought you advertised that you served breakfast? He responded, "That's our breakfast.  It's a 'grab and go' breakfast."  Though this was a suites hotel (i.e., each room had a tiny, old kitchen area), there were no plates, no utensils, no pots or pans (i.e., all the cupboards were totally empty).  The air conditioning is from large window units that blow away the curtains.  For me, this was just an overnight stay on a road trip, and for that it was okay based on the price, but I would not stay here if my destination were Houston.   Wifi is free, but the free level is slow, and the sign-in process (if not carefully done) will fool you into buying a higher speed (which is the default in the sign-in).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This is a poorly maintained hotel in need of extensive renovation and deep cleaning. I stayed one night.  I was traveling with my two small dogs (which was known to the hotel and was shown in my reservation) and was prepared for a $25 pet fee, but upon arrival I was told the fee was $25 per night per pet, i.e., $50 for the one night. I found this fee outrageous and not appropriate for a hotel on the low end.  They advertised a free breakfast, but when I came to the lobby to find the breakfast all I saw were some muffins and a couple of coffee decanters.  I asked the desk clerk where was the breakfast? He pointed to the muffin and coffee set-up and said, "Right there."  I said, I thought you advertised that you served breakfast? He responded, "That's our breakfast.  It's a 'grab and go' breakfast."  Though this was a suites hotel (i.e., each room had a tiny, old kitchen area), there were no plates, no utensils, no pots or pans (i.e., all the cupboards were totally empty).  The air conditioning is from large window units that blow away the curtains.  For me, this was just an overnight stay on a road trip, and for that it was okay based on the price, but I would not stay here if my destination were Houston.   Wifi is free, but the free level is slow, and the...This is a poorly maintained hotel in need of extensive renovation and deep cleaning. I stayed one night.  I was traveling with my two small dogs (which was known to the hotel and was shown in my reservation) and was prepared for a $25 pet fee, but upon arrival I was told the fee was $25 per night per pet, i.e., $50 for the one night. I found this fee outrageous and not appropriate for a hotel on the low end.  They advertised a free breakfast, but when I came to the lobby to find the breakfast all I saw were some muffins and a couple of coffee decanters.  I asked the desk clerk where was the breakfast? He pointed to the muffin and coffee set-up and said, "Right there."  I said, I thought you advertised that you served breakfast? He responded, "That's our breakfast.  It's a 'grab and go' breakfast."  Though this was a suites hotel (i.e., each room had a tiny, old kitchen area), there were no plates, no utensils, no pots or pans (i.e., all the cupboards were totally empty).  The air conditioning is from large window units that blow away the curtains.  For me, this was just an overnight stay on a road trip, and for that it was okay based on the price, but I would not stay here if my destination were Houston.   Wifi is free, but the free level is slow, and the sign-in process (if not carefully done) will fool you into buying a higher speed (which is the default in the sign-in).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r327479798-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327479798</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Don't even Try!</t>
+  </si>
+  <si>
+    <t>I was in Houston for a week. My company booked this place for the reason it had kitchenette. 
+I landed late night Sunday after long travel (had been travelling for couple of weeks prior to landing in Houston) and was dead tired. I took the room. As soon as I entered; I found the microwave, clock and even the gas not working. I also found that the bathroom tub had paint etc. peeling off. 
+I still decided to stay and sleep as I practically was dead tired. Next day; I woke up and went to work. It does says "grab and go" breakfast but it is really a muffin and apple for your breakfast. Well; cannot complain there as that is what was mentioned for the breakfast. 
+I come back late evening and I find a really bad smell off my room. The AC was turned off for some reason. The bed was not made so I am assuming the AC stopped working. I turned on the AC hoping the smell would go off. But it did not. So I call the front desk and they say " We have a febreze; please take it from front desk". I thought well sure; what the hell. Try that as well. It though felt kind of weird that I have to do that myself. But that did not help. So I called the front desk and asking them that I need to...I was in Houston for a week. My company booked this place for the reason it had kitchenette. I landed late night Sunday after long travel (had been travelling for couple of weeks prior to landing in Houston) and was dead tired. I took the room. As soon as I entered; I found the microwave, clock and even the gas not working. I also found that the bathroom tub had paint etc. peeling off. I still decided to stay and sleep as I practically was dead tired. Next day; I woke up and went to work. It does says "grab and go" breakfast but it is really a muffin and apple for your breakfast. Well; cannot complain there as that is what was mentioned for the breakfast. I come back late evening and I find a really bad smell off my room. The AC was turned off for some reason. The bed was not made so I am assuming the AC stopped working. I turned on the AC hoping the smell would go off. But it did not. So I call the front desk and they say " We have a febreze; please take it from front desk". I thought well sure; what the hell. Try that as well. It though felt kind of weird that I have to do that myself. But that did not help. So I called the front desk and asking them that I need to change the room. The front desk says there is none available. Because of the bad smell; I decided to book another place and move out. I packed my stuff and moved out to the front desk. The front desk called up the manager as I told her that I will NOT pay for tonight because of the bad state this place is in. The Manager talked to me on the phone and she would not listen. She kept insisting that we have rooms available even though the front desk confirmed that there are none available. In the meanwhile; another gentleman who checked in came back to front desk mentioned that he just got into his room and it was not even ready. His room had bottle of water with one bottle already half empty! After couple of heated discussion and I hanging up on the phone; they decided NOT to charge me for  tonight. The other gentleman and I shared a Uber cab and went to a much nicer place near by. My recommendations would be that you sleep on the road if you have too; but not in this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Houston for a week. My company booked this place for the reason it had kitchenette. 
+I landed late night Sunday after long travel (had been travelling for couple of weeks prior to landing in Houston) and was dead tired. I took the room. As soon as I entered; I found the microwave, clock and even the gas not working. I also found that the bathroom tub had paint etc. peeling off. 
+I still decided to stay and sleep as I practically was dead tired. Next day; I woke up and went to work. It does says "grab and go" breakfast but it is really a muffin and apple for your breakfast. Well; cannot complain there as that is what was mentioned for the breakfast. 
+I come back late evening and I find a really bad smell off my room. The AC was turned off for some reason. The bed was not made so I am assuming the AC stopped working. I turned on the AC hoping the smell would go off. But it did not. So I call the front desk and they say " We have a febreze; please take it from front desk". I thought well sure; what the hell. Try that as well. It though felt kind of weird that I have to do that myself. But that did not help. So I called the front desk and asking them that I need to...I was in Houston for a week. My company booked this place for the reason it had kitchenette. I landed late night Sunday after long travel (had been travelling for couple of weeks prior to landing in Houston) and was dead tired. I took the room. As soon as I entered; I found the microwave, clock and even the gas not working. I also found that the bathroom tub had paint etc. peeling off. I still decided to stay and sleep as I practically was dead tired. Next day; I woke up and went to work. It does says "grab and go" breakfast but it is really a muffin and apple for your breakfast. Well; cannot complain there as that is what was mentioned for the breakfast. I come back late evening and I find a really bad smell off my room. The AC was turned off for some reason. The bed was not made so I am assuming the AC stopped working. I turned on the AC hoping the smell would go off. But it did not. So I call the front desk and they say " We have a febreze; please take it from front desk". I thought well sure; what the hell. Try that as well. It though felt kind of weird that I have to do that myself. But that did not help. So I called the front desk and asking them that I need to change the room. The front desk says there is none available. Because of the bad smell; I decided to book another place and move out. I packed my stuff and moved out to the front desk. The front desk called up the manager as I told her that I will NOT pay for tonight because of the bad state this place is in. The Manager talked to me on the phone and she would not listen. She kept insisting that we have rooms available even though the front desk confirmed that there are none available. In the meanwhile; another gentleman who checked in came back to front desk mentioned that he just got into his room and it was not even ready. His room had bottle of water with one bottle already half empty! After couple of heated discussion and I hanging up on the phone; they decided NOT to charge me for  tonight. The other gentleman and I shared a Uber cab and went to a much nicer place near by. My recommendations would be that you sleep on the road if you have too; but not in this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r307944942-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307944942</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>the worst hotel management</t>
+  </si>
+  <si>
+    <t>living with bugs ,trash overflowing into hallways, other guest smoking and drinking till after 2am in mourning. right outside of main door no towels or toilet paper or there breakfast to go. all this happens because Manger does not do his job. I've complain before nothing happen except I ended in emergency room due to room condition. and the funny thing manger never called to see how I was.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r300928516-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300928516</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>One of the better extended stays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for two weeks.  Employees are friendly, and the bed was new and very comfortable.  WiFi is strong and reliable.  Rooms are clean and a/c is strong and very quiet.  Only complaints are limited parking and a few of the television channels occasionally get static and become unwatchable.  Pro-tip, ask for a room facing the garage, it's quieter than the front side that faces the highway and hotel lobby.  </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r293052046-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>293052046</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Two Month Stay - Mostly Good and Some Bad</t>
+  </si>
+  <si>
+    <t>The Good: The room was very clean when I arrived and the front desk staff were excellent throughout my entire stay. They provide all the kitchen items you may need for a long stay. The location is also very convenient for any area you need to visit in Houston, especially Greenway, the Museum District, or Upper Kirby. You are also located near many great restaurants and grocery stores. Within a five minute drive you can meet any need or want you may have during your stay. 
+The Cons: There appears to be a lack of communication or management ability in the hierarchy of this hotel. First of all I went to inquire about a broker card reader at the entrance closest too my room, expressing my safety concern, I was met with hostility by one of the managers and told that propping the door was needed for the convenience of the guest. I understand the lack of convenience caused by having to walk through the lobby but simply wanted to express my objections about the safety of the situation in case something were to happen to my room. In the end the manager assured me that they had ordered the part and were working on fixing the problem. Two months later and this problem still was not fixed. The second problem I had with this hotel was their inability to provide housekeeping service on the day which I was promised...The Good: The room was very clean when I arrived and the front desk staff were excellent throughout my entire stay. They provide all the kitchen items you may need for a long stay. The location is also very convenient for any area you need to visit in Houston, especially Greenway, the Museum District, or Upper Kirby. You are also located near many great restaurants and grocery stores. Within a five minute drive you can meet any need or want you may have during your stay. The Cons: There appears to be a lack of communication or management ability in the hierarchy of this hotel. First of all I went to inquire about a broker card reader at the entrance closest too my room, expressing my safety concern, I was met with hostility by one of the managers and told that propping the door was needed for the convenience of the guest. I understand the lack of convenience caused by having to walk through the lobby but simply wanted to express my objections about the safety of the situation in case something were to happen to my room. In the end the manager assured me that they had ordered the part and were working on fixing the problem. Two months later and this problem still was not fixed. The second problem I had with this hotel was their inability to provide housekeeping service on the day which I was promised it would be provided. Three times during my stay there I had to inquire at the front desk as to why I had not received any housekeeping that week and then only after informing the front desk staff did I receive the weekly housekeeping service I was promised. The last week of my stay I actually did not receive any housekeeping service at all. When housekeeping did actually clean my room they did a very good job.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>The Good: The room was very clean when I arrived and the front desk staff were excellent throughout my entire stay. They provide all the kitchen items you may need for a long stay. The location is also very convenient for any area you need to visit in Houston, especially Greenway, the Museum District, or Upper Kirby. You are also located near many great restaurants and grocery stores. Within a five minute drive you can meet any need or want you may have during your stay. 
+The Cons: There appears to be a lack of communication or management ability in the hierarchy of this hotel. First of all I went to inquire about a broker card reader at the entrance closest too my room, expressing my safety concern, I was met with hostility by one of the managers and told that propping the door was needed for the convenience of the guest. I understand the lack of convenience caused by having to walk through the lobby but simply wanted to express my objections about the safety of the situation in case something were to happen to my room. In the end the manager assured me that they had ordered the part and were working on fixing the problem. Two months later and this problem still was not fixed. The second problem I had with this hotel was their inability to provide housekeeping service on the day which I was promised...The Good: The room was very clean when I arrived and the front desk staff were excellent throughout my entire stay. They provide all the kitchen items you may need for a long stay. The location is also very convenient for any area you need to visit in Houston, especially Greenway, the Museum District, or Upper Kirby. You are also located near many great restaurants and grocery stores. Within a five minute drive you can meet any need or want you may have during your stay. The Cons: There appears to be a lack of communication or management ability in the hierarchy of this hotel. First of all I went to inquire about a broker card reader at the entrance closest too my room, expressing my safety concern, I was met with hostility by one of the managers and told that propping the door was needed for the convenience of the guest. I understand the lack of convenience caused by having to walk through the lobby but simply wanted to express my objections about the safety of the situation in case something were to happen to my room. In the end the manager assured me that they had ordered the part and were working on fixing the problem. Two months later and this problem still was not fixed. The second problem I had with this hotel was their inability to provide housekeeping service on the day which I was promised it would be provided. Three times during my stay there I had to inquire at the front desk as to why I had not received any housekeeping that week and then only after informing the front desk staff did I receive the weekly housekeeping service I was promised. The last week of my stay I actually did not receive any housekeeping service at all. When housekeeping did actually clean my room they did a very good job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r255599825-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255599825</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Its All About the Price</t>
+  </si>
+  <si>
+    <t>Stayed here due to last minute booking.  Hotel was quiet and clean.  Because its extended stay it has a hot plate and a fridge.  No cooking or eating utensils are supplied.  There were no cooking smells in the hallways which was nice.  The breakfast on the go is a joke so other than coffee don't expect much.  Location is not bad right on the freeway.  Lots of eating options available and a CVS around the corner (vending machine at the hotel is limited) for water and snacks.  I would probably stay here again if my usual Houston locations were booked up.  Several restaurants within a few minutes walk.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r242732306-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242732306</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Business trip to Houston</t>
+  </si>
+  <si>
+    <t>The hotel has no lobby and no cafeteria / restaurant area. The location is far from any of this services, so if you do not have a car, it is very difficult to find restaurants and cafes in a walkeable distance.The rooms are spacious, but poorly furnitured. The towels seem very wasted. You will find an iron inside the room, what is good if you need to prepare the clothes for meetings. It normaly takes more than 30 minutes for any called cab to show up.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r229846497-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229846497</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Birthday Weekend</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel Sept13-15, front desk women VERY VERY nice,my room was cleaned,had a few issues with people above me and next to me with noise called the office they took care of it, Really no big issues, the location is good a lot of stuff around, booked my room off of hotwire payed bout $130 so not bad at all, well worth it, was not to concerned about the grab and go breakfast so cant say it is. But I enjoyed my stay #208 I would go back just cause of the location and the friendly staff ;)</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r214826447-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214826447</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great Staff, Great Service, Very Clean and Spacious Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I moved to this location from another in Houston do to BAD service and a Nasty Environment!It's amazing how one could move 3 1/2 Miles away and receive such Hospitality and cleanliness! My stay so far has been Great! Even though It's off Freeway I've found it to be quiet and Peaceful. Thanks Tameika for a Speedy Check in and for accommodating me vacating the other lactation. Thanks to Jennifer who is also very pleasant in the mornings. Not sure the Guy's name. I'm thinking he is the manager. Just all around Good People, Good Atmosphere! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r207001338-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207001338</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Good value for price and area</t>
+  </si>
+  <si>
+    <t>When I travel for business it's usually for a few days to a few weeks and when I travel I need space to move about, a place to make good home cooked meals (mainly my steel cut oats in the morning) and a great neighborhood to be in.  If you are ever in Houston and need a decent place to stay, Extended stay America, Greenway Plaza. 2330 Southwest Freeway is a place I totally recommend. 
+Granted the first couple of trips there weren't the best.  The floors were dirty, the countertops in the kitchenette had burn marks on them and the shower needed some attention. I originally didn't intend on returning, but noticed that they have undergone a recent remodel. I have since been back twice and I must say it has gotten better each visit.  
+The exterior is still the same, clean, open, ample parking and well lit.  The interiors have been freshly painted, the walls are adorned with new framed art that is welcoming and inviting, new carpet and new countertops in the rooms.  My only complaint up to this point is that the hallways seem to only get vacuumed 2-3 times a week.  I suggest at least spot sweep.  
+Reception is always very friendly and helpful, as is the checkout process.  Like I mentioned earlier, I like the kitchenette because of the ease of cooking in room especially when I can goto Whole Foods which is right...When I travel for business it's usually for a few days to a few weeks and when I travel I need space to move about, a place to make good home cooked meals (mainly my steel cut oats in the morning) and a great neighborhood to be in.  If you are ever in Houston and need a decent place to stay, Extended stay America, Greenway Plaza. 2330 Southwest Freeway is a place I totally recommend. Granted the first couple of trips there weren't the best.  The floors were dirty, the countertops in the kitchenette had burn marks on them and the shower needed some attention. I originally didn't intend on returning, but noticed that they have undergone a recent remodel. I have since been back twice and I must say it has gotten better each visit.  The exterior is still the same, clean, open, ample parking and well lit.  The interiors have been freshly painted, the walls are adorned with new framed art that is welcoming and inviting, new carpet and new countertops in the rooms.  My only complaint up to this point is that the hallways seem to only get vacuumed 2-3 times a week.  I suggest at least spot sweep.  Reception is always very friendly and helpful, as is the checkout process.  Like I mentioned earlier, I like the kitchenette because of the ease of cooking in room especially when I can goto Whole Foods which is right down the street.  The neighborhood is great for a wide variety if restaurants too if you want to eat out.  The beds are comfortable with down and foam pillows, rooms are ample, bathrooms large, kitchens with microwave, range top and full refrigerators, flat screen tv's with basic cable and the kicker FREE Internet.  Most of the higher priced hotels charge extra for wifi in room, not here! It's free wifi in every room and you have the option if you would like to purchase a higher speed connection for a nominal fee.  I use the free access and do just fine.  Once again the only complaint I have so far in the rooms is vacuum the floors a little better.  It did seem that the vacuum doesn't get too far under the bed and chairs.  Yes, there are nicer places in town to stay, but for the value you can't beat Extended stay America, Greenway Plaza.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>When I travel for business it's usually for a few days to a few weeks and when I travel I need space to move about, a place to make good home cooked meals (mainly my steel cut oats in the morning) and a great neighborhood to be in.  If you are ever in Houston and need a decent place to stay, Extended stay America, Greenway Plaza. 2330 Southwest Freeway is a place I totally recommend. 
+Granted the first couple of trips there weren't the best.  The floors were dirty, the countertops in the kitchenette had burn marks on them and the shower needed some attention. I originally didn't intend on returning, but noticed that they have undergone a recent remodel. I have since been back twice and I must say it has gotten better each visit.  
+The exterior is still the same, clean, open, ample parking and well lit.  The interiors have been freshly painted, the walls are adorned with new framed art that is welcoming and inviting, new carpet and new countertops in the rooms.  My only complaint up to this point is that the hallways seem to only get vacuumed 2-3 times a week.  I suggest at least spot sweep.  
+Reception is always very friendly and helpful, as is the checkout process.  Like I mentioned earlier, I like the kitchenette because of the ease of cooking in room especially when I can goto Whole Foods which is right...When I travel for business it's usually for a few days to a few weeks and when I travel I need space to move about, a place to make good home cooked meals (mainly my steel cut oats in the morning) and a great neighborhood to be in.  If you are ever in Houston and need a decent place to stay, Extended stay America, Greenway Plaza. 2330 Southwest Freeway is a place I totally recommend. Granted the first couple of trips there weren't the best.  The floors were dirty, the countertops in the kitchenette had burn marks on them and the shower needed some attention. I originally didn't intend on returning, but noticed that they have undergone a recent remodel. I have since been back twice and I must say it has gotten better each visit.  The exterior is still the same, clean, open, ample parking and well lit.  The interiors have been freshly painted, the walls are adorned with new framed art that is welcoming and inviting, new carpet and new countertops in the rooms.  My only complaint up to this point is that the hallways seem to only get vacuumed 2-3 times a week.  I suggest at least spot sweep.  Reception is always very friendly and helpful, as is the checkout process.  Like I mentioned earlier, I like the kitchenette because of the ease of cooking in room especially when I can goto Whole Foods which is right down the street.  The neighborhood is great for a wide variety if restaurants too if you want to eat out.  The beds are comfortable with down and foam pillows, rooms are ample, bathrooms large, kitchens with microwave, range top and full refrigerators, flat screen tv's with basic cable and the kicker FREE Internet.  Most of the higher priced hotels charge extra for wifi in room, not here! It's free wifi in every room and you have the option if you would like to purchase a higher speed connection for a nominal fee.  I use the free access and do just fine.  Once again the only complaint I have so far in the rooms is vacuum the floors a little better.  It did seem that the vacuum doesn't get too far under the bed and chairs.  Yes, there are nicer places in town to stay, but for the value you can't beat Extended stay America, Greenway Plaza.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r206209384-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206209384</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great value, great stay!</t>
+  </si>
+  <si>
+    <t>Very clean, friendly staff that really go over the top to please you.. The thing I liked best was the kitchen. It was. A great way to save a few pennies and cook your own meals. The kitchen had everything you would need.    A very safe place to be. Enjoy your stay..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r195228461-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195228461</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Stay here!</t>
+  </si>
+  <si>
+    <t>this extended stay is amazing!!! the staff is great and I felt welcome. Also the location is very safe and everything is near by. I highly recommend this hotel.Thanks Raza, Anele, and Helda it was nice to meet you.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>this extended stay is amazing!!! the staff is great and I felt welcome. Also the location is very safe and everything is near by. I highly recommend this hotel.Thanks Raza, Anele, and Helda it was nice to meet you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r191701831-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191701831</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>An Unrestful Thumbs Down</t>
+  </si>
+  <si>
+    <t>Visiting Houston on business, I anticipated a decent room and a good night's sleep. I chose Extended Stay as a recommendation from a coworker and because the location was ideal for my business trip. I am not overly picky but had I known about the stains, the slight stale smoky smell (in my non-smoking room) and it being incredibly loud ... I would not have stayed here. Staff was very friendly but seemed to be new or unsure of certain processes. The complimentary breakfast was minimal but good. The free wifi was nice, easy to connect to and fast. But I did not get any sleep. At all. For $110, it was definitely not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Visiting Houston on business, I anticipated a decent room and a good night's sleep. I chose Extended Stay as a recommendation from a coworker and because the location was ideal for my business trip. I am not overly picky but had I known about the stains, the slight stale smoky smell (in my non-smoking room) and it being incredibly loud ... I would not have stayed here. Staff was very friendly but seemed to be new or unsure of certain processes. The complimentary breakfast was minimal but good. The free wifi was nice, easy to connect to and fast. But I did not get any sleep. At all. For $110, it was definitely not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r188500991-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188500991</t>
+  </si>
+  <si>
+    <t>12/25/2013</t>
+  </si>
+  <si>
+    <t>Basic Plus</t>
+  </si>
+  <si>
+    <t>This is a hotel that caters to extended stays. Housekeeping operates differently than from other conventional hotels. Why this is a surprise for its guest I do not know.  My room was very clean , comfortable and affordable. The small kitchen and free WIFI was an added benefit for my stay. The staff was very helpful and very willing to please. This hotel was going under renovations during my stay. So rooms should be fresh to future guests. The only suggestion I have would be making this in a 100% smoke free hotel. The possiblity of not recieving a nonsmoking room could be a deal breaker for most guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>This is a hotel that caters to extended stays. Housekeeping operates differently than from other conventional hotels. Why this is a surprise for its guest I do not know.  My room was very clean , comfortable and affordable. The small kitchen and free WIFI was an added benefit for my stay. The staff was very helpful and very willing to please. This hotel was going under renovations during my stay. So rooms should be fresh to future guests. The only suggestion I have would be making this in a 100% smoke free hotel. The possiblity of not recieving a nonsmoking room could be a deal breaker for most guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r187091466-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187091466</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Bad overall experience -</t>
+  </si>
+  <si>
+    <t>Room had a pungent curry odor, very dirty carpet with a large red stain and a big splash of red liquid on the wall!Bedspread was dirty, had not been washed.Bathroom paper roll was almost empty! No soaps or shampoo in room.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r183825098-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183825098</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>OK hotel at low price</t>
+  </si>
+  <si>
+    <t>Not the best location though pretty close to everything if you drive: only 5-10 minutes to the Galleria, River Oaks, Midtown, etc. Overall experience would be good if only the rooms didn't smell so bad. Apparently all rooms in the hotel were smoking rooms, as any of them would stink. The rooms are spacious with large bed, two desks, armchair and full kitchen, though without any bedroom or guestroom separation. Bathrooms could be a bit larger as you can hardly look at the mirror or close the door without touching the toilet. The furniture and all amenities were very old, though I didn't expect anything better for this price. They have complimentary breakfast and free wifi.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Not the best location though pretty close to everything if you drive: only 5-10 minutes to the Galleria, River Oaks, Midtown, etc. Overall experience would be good if only the rooms didn't smell so bad. Apparently all rooms in the hotel were smoking rooms, as any of them would stink. The rooms are spacious with large bed, two desks, armchair and full kitchen, though without any bedroom or guestroom separation. Bathrooms could be a bit larger as you can hardly look at the mirror or close the door without touching the toilet. The furniture and all amenities were very old, though I didn't expect anything better for this price. They have complimentary breakfast and free wifi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r182164807-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182164807</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>HAPPILY Surprised!</t>
+  </si>
+  <si>
+    <t>I have seen reviews for this hotel location on other sites, and was horrified at what I read.  I couldn't believe that a hotel could stay in business with reviews this bad.  However, this particular ESA location was the most convenient location for my needs, and I decided to at least call the hotel to speak with a manager about these awful reviews.  In all fairness, the reviews were from 2 years ago, so I hoped that things had improved, considering that the hotel was still open.  I spoke with a knowledgeable, polite and professional young man who is the assistant manger.  He helped me decide that I would give this hotel a try.  When I arrived, I met this assistant manager and the manager, and both gentlemen were wonderfully helpful and hospitable.  I am staying here currently and will likely be here for another month.  My room is beautifully clean, my towels and sheets are comfortable and always kept fresh, the grab-n-go breakfast has a nice selection, and the coffee tastes great!  All the staff I have interacted with so far have been genuinely pleasant, considerate and helpful.  I wake up in the mornings often forgetting that I'm staying in a hotel.  I definitely recommend this location for longer stays - you can't beat the quality you get for the price, especially considering the high-quality of service provided to you with a sincere smile.  I am VERY happy that...I have seen reviews for this hotel location on other sites, and was horrified at what I read.  I couldn't believe that a hotel could stay in business with reviews this bad.  However, this particular ESA location was the most convenient location for my needs, and I decided to at least call the hotel to speak with a manager about these awful reviews.  In all fairness, the reviews were from 2 years ago, so I hoped that things had improved, considering that the hotel was still open.  I spoke with a knowledgeable, polite and professional young man who is the assistant manger.  He helped me decide that I would give this hotel a try.  When I arrived, I met this assistant manager and the manager, and both gentlemen were wonderfully helpful and hospitable.  I am staying here currently and will likely be here for another month.  My room is beautifully clean, my towels and sheets are comfortable and always kept fresh, the grab-n-go breakfast has a nice selection, and the coffee tastes great!  All the staff I have interacted with so far have been genuinely pleasant, considerate and helpful.  I wake up in the mornings often forgetting that I'm staying in a hotel.  I definitely recommend this location for longer stays - you can't beat the quality you get for the price, especially considering the high-quality of service provided to you with a sincere smile.  I am VERY happy that I took a chance and booked this hotel.  Definitely made the right call!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded October 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2013</t>
+  </si>
+  <si>
+    <t>I have seen reviews for this hotel location on other sites, and was horrified at what I read.  I couldn't believe that a hotel could stay in business with reviews this bad.  However, this particular ESA location was the most convenient location for my needs, and I decided to at least call the hotel to speak with a manager about these awful reviews.  In all fairness, the reviews were from 2 years ago, so I hoped that things had improved, considering that the hotel was still open.  I spoke with a knowledgeable, polite and professional young man who is the assistant manger.  He helped me decide that I would give this hotel a try.  When I arrived, I met this assistant manager and the manager, and both gentlemen were wonderfully helpful and hospitable.  I am staying here currently and will likely be here for another month.  My room is beautifully clean, my towels and sheets are comfortable and always kept fresh, the grab-n-go breakfast has a nice selection, and the coffee tastes great!  All the staff I have interacted with so far have been genuinely pleasant, considerate and helpful.  I wake up in the mornings often forgetting that I'm staying in a hotel.  I definitely recommend this location for longer stays - you can't beat the quality you get for the price, especially considering the high-quality of service provided to you with a sincere smile.  I am VERY happy that...I have seen reviews for this hotel location on other sites, and was horrified at what I read.  I couldn't believe that a hotel could stay in business with reviews this bad.  However, this particular ESA location was the most convenient location for my needs, and I decided to at least call the hotel to speak with a manager about these awful reviews.  In all fairness, the reviews were from 2 years ago, so I hoped that things had improved, considering that the hotel was still open.  I spoke with a knowledgeable, polite and professional young man who is the assistant manger.  He helped me decide that I would give this hotel a try.  When I arrived, I met this assistant manager and the manager, and both gentlemen were wonderfully helpful and hospitable.  I am staying here currently and will likely be here for another month.  My room is beautifully clean, my towels and sheets are comfortable and always kept fresh, the grab-n-go breakfast has a nice selection, and the coffee tastes great!  All the staff I have interacted with so far have been genuinely pleasant, considerate and helpful.  I wake up in the mornings often forgetting that I'm staying in a hotel.  I definitely recommend this location for longer stays - you can't beat the quality you get for the price, especially considering the high-quality of service provided to you with a sincere smile.  I am VERY happy that I took a chance and booked this hotel.  Definitely made the right call!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r175638845-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175638845</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Good hotel with friendly staff. I stayed for around 1 week. Never faced any problem with the staff or the facilities. Staff were always very co-operating. Overall, I can say: Helpful staff, nice mini kitchen and a quiet room. No problems at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2013</t>
+  </si>
+  <si>
+    <t>Good hotel with friendly staff. I stayed for around 1 week. Never faced any problem with the staff or the facilities. Staff were always very co-operating. Overall, I can say: Helpful staff, nice mini kitchen and a quiet room. No problems at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r170952283-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170952283</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Adequate - and decent value</t>
+  </si>
+  <si>
+    <t>This hotel is exactly as advertised - it's clean, the bed was comfortable and the a/c worked fine. But no frills, either.  Maid service costs extra but I can make my own bed so wasn't needed on my 5 night stay.  No shuttle service but free parking and they will call a cab for you.  The staff was pleasant and helpful - I was moved to a non-smoking room when the first one I was assigned reeked of stale smoke mixed with air freshener.  The rate was good for the location and quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded August 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is exactly as advertised - it's clean, the bed was comfortable and the a/c worked fine. But no frills, either.  Maid service costs extra but I can make my own bed so wasn't needed on my 5 night stay.  No shuttle service but free parking and they will call a cab for you.  The staff was pleasant and helpful - I was moved to a non-smoking room when the first one I was assigned reeked of stale smoke mixed with air freshener.  The rate was good for the location and quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r165258794-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165258794</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Convenient, safe and quiet hotel with great staff.</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months here while working at the medical center. They welcomed me and my dog with open arms. Helpful staff, mini kitchen and quiet room. No problems at all. Only suggest that you might bring a foam mattress cover as the beds are pretty firm if staying a long time. I will be going back for another 3 months soon. Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>I stayed for 3 months here while working at the medical center. They welcomed me and my dog with open arms. Helpful staff, mini kitchen and quiet room. No problems at all. Only suggest that you might bring a foam mattress cover as the beds are pretty firm if staying a long time. I will be going back for another 3 months soon. Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r157170153-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157170153</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Fire trap</t>
+  </si>
+  <si>
+    <t>Overall the room was clean. There was no remote for the tv. When I asked for one, the remote they gave me had dead batteries. Room has a microwave in which I placed popcorn. Popcorn never popped but the microwave caught fire. Yellowish acrid smoke billowed out of it. Smoke tripped the fire alarm. They removed the microwave but didn't replace it. The stench from the electrical fire lasted for the remainder of my stay. I wasn't offered a change of rooms. Definitely not on my list of top ten places to stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Overall the room was clean. There was no remote for the tv. When I asked for one, the remote they gave me had dead batteries. Room has a microwave in which I placed popcorn. Popcorn never popped but the microwave caught fire. Yellowish acrid smoke billowed out of it. Smoke tripped the fire alarm. They removed the microwave but didn't replace it. The stench from the electrical fire lasted for the remainder of my stay. I wasn't offered a change of rooms. Definitely not on my list of top ten places to stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r155997200-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155997200</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Refused to honor promotion</t>
+  </si>
+  <si>
+    <t>Received personalized email from national office offering promo and called national number provided in emailr. When i checked in they said promo would be honored at check out as they could see it on my reservation. When i checked out front  desk refused  to honor what national number quotedMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Received personalized email from national office offering promo and called national number provided in emailr. When i checked in they said promo would be honored at check out as they could see it on my reservation. When i checked out front  desk refused  to honor what national number quotedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r155728805-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155728805</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Will stay again - almost perfect for our needs</t>
+  </si>
+  <si>
+    <t>There are many pros to staying at this property. The staff is very nice and seem more than willing to accomodate your requests. You are right at SW Frwy so you could quickly move about the city while still having all the cool eateries and shops off of Kirby (a real plus is Lupe Tortilla two doors down). Also a 24HR FedEx office within walking distance. We were here for an entire month in 2013 and also 2012. I recommend with the following cons: they seriously need a towel upgrade or at the very least add fabric softener to their cycle, the hallways generally smell of strange food since the rooms all offer kitchens, the elevator is in serious need of repair. While I never felt danger in the elevator, it scrapes and clunks and makes horrific noise. We suggested repair in 2012 but same situation in 2013. Don't stay in Room 214 or the elevator noise will drive you insane; we moved as soon as another room was available.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2013</t>
+  </si>
+  <si>
+    <t>There are many pros to staying at this property. The staff is very nice and seem more than willing to accomodate your requests. You are right at SW Frwy so you could quickly move about the city while still having all the cool eateries and shops off of Kirby (a real plus is Lupe Tortilla two doors down). Also a 24HR FedEx office within walking distance. We were here for an entire month in 2013 and also 2012. I recommend with the following cons: they seriously need a towel upgrade or at the very least add fabric softener to their cycle, the hallways generally smell of strange food since the rooms all offer kitchens, the elevator is in serious need of repair. While I never felt danger in the elevator, it scrapes and clunks and makes horrific noise. We suggested repair in 2012 but same situation in 2013. Don't stay in Room 214 or the elevator noise will drive you insane; we moved as soon as another room was available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r152547373-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152547373</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>I Stayed there for all star week end. My stay was nice and the the receptionist was nice helpful and professional. I enjoyed my stay the young lady that check me in was Chelsea very polite. i defiantly come back to stay on my next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded February 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2013</t>
+  </si>
+  <si>
+    <t>I Stayed there for all star week end. My stay was nice and the the receptionist was nice helpful and professional. I enjoyed my stay the young lady that check me in was Chelsea very polite. i defiantly come back to stay on my next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r152488335-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152488335</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Clean, convenient and well-priced</t>
+  </si>
+  <si>
+    <t>I really enjoyed my 6-day stay at this hotel - my room was large, spacious, clean and well-furnished, and I liked the kitchen facilities - they came in handy for reheating meals, making tea, etc. The bathroom was clean, spacious and in good condition (very important for me), the TV had a good range of channels, and the bed was comfortable - I never had any problems getting a good night's sleep. Basically, everything I needed for a comfortable and convenient stay was provided. I also liked the location of the hotel - very accessible just off the freeway, and in a very nice, quiet part of town. The free parking was very convenient since I was renting a car, and I was always felt safe and secure in the area. I didn't have much interaction with the staff (which is fine with me), but generally I found them approachable. I think this place offers great value for money in Houston, and would recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoyed my 6-day stay at this hotel - my room was large, spacious, clean and well-furnished, and I liked the kitchen facilities - they came in handy for reheating meals, making tea, etc. The bathroom was clean, spacious and in good condition (very important for me), the TV had a good range of channels, and the bed was comfortable - I never had any problems getting a good night's sleep. Basically, everything I needed for a comfortable and convenient stay was provided. I also liked the location of the hotel - very accessible just off the freeway, and in a very nice, quiet part of town. The free parking was very convenient since I was renting a car, and I was always felt safe and secure in the area. I didn't have much interaction with the staff (which is fine with me), but generally I found them approachable. I think this place offers great value for money in Houston, and would recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r150864634-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150864634</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>good for long business stays</t>
+  </si>
+  <si>
+    <t>I stayed here for about a little over a week, the stay was very nice and the staff was friendly and professional. They were nice enough to even book me a room at their different location when they were booked up with the weekend. I will reccomend and consider this hotel next time I'm on the job locationMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for about a little over a week, the stay was very nice and the staff was friendly and professional. They were nice enough to even book me a room at their different location when they were booked up with the weekend. I will reccomend and consider this hotel next time I'm on the job locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r142919069-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142919069</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>The Awesomeness of the Service Industry</t>
+  </si>
+  <si>
+    <t>I am amazed by the Customer Service at this hotel that I received from Terran Mitchell.  OMG!!  She really made me and my guests feel at home.  The rooms were so clean and the staff really made it easier for the things we needed. I am soooo pleased with the service and I will surely recommend this hotel many times over. terran is so nice and her mannerisms are exceptionally professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded October 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2012</t>
+  </si>
+  <si>
+    <t>I am amazed by the Customer Service at this hotel that I received from Terran Mitchell.  OMG!!  She really made me and my guests feel at home.  The rooms were so clean and the staff really made it easier for the things we needed. I am soooo pleased with the service and I will surely recommend this hotel many times over. terran is so nice and her mannerisms are exceptionally professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r142341854-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142341854</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>My stay here was AWESOME! I loved staying here. I had never stayed here before and wasn't familiar with the surroundings, but I am glad i stayed here and no where else. The front desk clerk, Mie, really made me feel welcomed and was very helpful. I love her personality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>My stay here was AWESOME! I loved staying here. I had never stayed here before and wasn't familiar with the surroundings, but I am glad i stayed here and no where else. The front desk clerk, Mie, really made me feel welcomed and was very helpful. I love her personality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r142258652-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142258652</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Love the hospitality!</t>
+  </si>
+  <si>
+    <t>I am from Los Angeles and my time at the Extended Stay America in Houston was a very pleasant experience for me, especially  since it was my first time in Houston and at the hotel.. I  love the hospitality I received from Mie who was excellent.   She works at the front desk, and was very helpful. Plus always greets you with a smile, as well as the rest of the staff. My room was very clean and sufficient. My bed was very comfortable for relaxation and a good night's rest.. I would recommend this hotel to anyone who does not want to spend a whole lot of money but still want the professional service you would receive at the Hilton, Four Seasons and etc.SaundraMoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2012</t>
+  </si>
+  <si>
+    <t>I am from Los Angeles and my time at the Extended Stay America in Houston was a very pleasant experience for me, especially  since it was my first time in Houston and at the hotel.. I  love the hospitality I received from Mie who was excellent.   She works at the front desk, and was very helpful. Plus always greets you with a smile, as well as the rest of the staff. My room was very clean and sufficient. My bed was very comfortable for relaxation and a good night's rest.. I would recommend this hotel to anyone who does not want to spend a whole lot of money but still want the professional service you would receive at the Hilton, Four Seasons and etc.SaundraMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r139027467-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139027467</t>
+  </si>
+  <si>
+    <t>08/31/2012</t>
+  </si>
+  <si>
+    <t>it was good!</t>
+  </si>
+  <si>
+    <t>i was there for around one week. when i first got there i thought that i wanted to be out of there ASAP (but i guess it was just the fact of not being at home) however, im a frecuent traveler and i think this place was good, i actually think the stuff is very friendly and they even call ur room just to see if you are ok or need anthing, that really makes you feel good!i think most of the times it really depends on the type of person ( a lot of people just like to have everything for a very resonable price)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded September 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2012</t>
+  </si>
+  <si>
+    <t>i was there for around one week. when i first got there i thought that i wanted to be out of there ASAP (but i guess it was just the fact of not being at home) however, im a frecuent traveler and i think this place was good, i actually think the stuff is very friendly and they even call ur room just to see if you are ok or need anthing, that really makes you feel good!i think most of the times it really depends on the type of person ( a lot of people just like to have everything for a very resonable price)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r139022347-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139022347</t>
+  </si>
+  <si>
+    <t>I felt at home</t>
+  </si>
+  <si>
+    <t>The hospitality I received from every one at the front desk was fenamnal! The made my stay very comfortable! Mie was my favorite great personality! Mrs Destiny Owens was very good with any issues I had when my company unexpectedaly decided to change my room every week!! Lol overall great service I will deff book again! added plus you can get anywhere in the city within 30 min !MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>The hospitality I received from every one at the front desk was fenamnal! The made my stay very comfortable! Mie was my favorite great personality! Mrs Destiny Owens was very good with any issues I had when my company unexpectedaly decided to change my room every week!! Lol overall great service I will deff book again! added plus you can get anywhere in the city within 30 min !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r138150618-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138150618</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!!</t>
+  </si>
+  <si>
+    <t>Me &amp; my family have been living here for almost a yr. The stay and service here have been great!!! The just did a face lift on the property!!! Management is always attentive!! U'll love it!! Close to everything!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded August 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2012</t>
+  </si>
+  <si>
+    <t>Me &amp; my family have been living here for almost a yr. The stay and service here have been great!!! The just did a face lift on the property!!! Management is always attentive!! U'll love it!! Close to everything!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r131815769-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131815769</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Reasonable Alternative to Expensive Hotels</t>
+  </si>
+  <si>
+    <t>Clean (but not spotless) with reasonably comfortable bed.  This big advantage to this hotel is its location - a room with a kitchenette inside the I-610 loop.  Conveniently located to the Galleria area, Montrose neighborhood (with its nightlife), Museum District and Medical Centre.  It serves as an adequate low cost alternative to more expensive in-town hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Clean (but not spotless) with reasonably comfortable bed.  This big advantage to this hotel is its location - a room with a kitchenette inside the I-610 loop.  Conveniently located to the Galleria area, Montrose neighborhood (with its nightlife), Museum District and Medical Centre.  It serves as an adequate low cost alternative to more expensive in-town hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r127706042-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127706042</t>
+  </si>
+  <si>
+    <t>04/11/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS!!! Do NOT stay here!!!</t>
+  </si>
+  <si>
+    <t>My family and I checked into the ESA Houston/Greenway Plaza on a recent Thursday night, we had booked the place for a month because we recently sold our house and were waiting to close on a new property. Upon arrival we were told that our room was a smoking room, even though I requested a non-smoking room, being worn out and tired I didn't argue becuase the desk clerk, Jean, told me we could switch rooms in the morning.  We were startled when a kinda nutty looking woman stormed into the lobby saying that she was leaving because the room she was in was swarming with bugs. I thought she was just nuts.  But I should have listened to her, she was right!
+The first couple days were pretty good, the maid came and cleaned up and we had a little kitchenette so we could cook and I could homeschool my son at the table in the room. We liked the location by shops and restaurants and close to the zoo. We thougth it would be ideal.  NOT!  It turned into a nightmare. First of all the bathroom sink leaked and I had to use a bathtowel to stop the leak. I went to the lobby to get a new towel and told the clerk what happened and she said she would have to charge me for a new towel. I told her NO WAY, that I was using the...My family and I checked into the ESA Houston/Greenway Plaza on a recent Thursday night, we had booked the place for a month because we recently sold our house and were waiting to close on a new property. Upon arrival we were told that our room was a smoking room, even though I requested a non-smoking room, being worn out and tired I didn't argue becuase the desk clerk, Jean, told me we could switch rooms in the morning.  We were startled when a kinda nutty looking woman stormed into the lobby saying that she was leaving because the room she was in was swarming with bugs. I thought she was just nuts.  But I should have listened to her, she was right!The first couple days were pretty good, the maid came and cleaned up and we had a little kitchenette so we could cook and I could homeschool my son at the table in the room. We liked the location by shops and restaurants and close to the zoo. We thougth it would be ideal.  NOT!  It turned into a nightmare. First of all the bathroom sink leaked and I had to use a bathtowel to stop the leak. I went to the lobby to get a new towel and told the clerk what happened and she said she would have to charge me for a new towel. I told her NO WAY, that I was using the towel to stop a leak! She didn't even say they would fix the leak. So the next day I called to complain and they did send someone to fix it.  In the meantime we visited friends who have a house by the bayou and that night I was itchy. I thought it was mosquito bites from being by the bayou. I was the only one in the family itching so I didn't think anything of it.  By the next day I was really itchy. I took a shower and took some benadryl. I noticed at this time some little flying bugs that I thougth were gnats. I called to report it and she said she would send the maitenance guy down. She did. He showed up with his poison and sprayed under the sink.  I was bitten by one of those suckers and I took the thing down to the lobby front desk to show the girl. Asked her if it was a bed bug and she said "I don't know, I don't think so."  So being an idiot, I went back to the room.  That night I called to make sure they cleaned the room the next day and I kept getting put off they kept saying they would get back to me and never did. After an itchy night I finally got pissed and took the sheets off. I was going to wash them myself and I found little bugs in the bed.  I was freaked out and screaming. I called the desk and they denyed bedbugs, but called the maitenance man to come spray. He picked up the mattress and said "Oh, senora, thees ees bad. Yah. Those are bedbugs". I started crying and he took out his poison and started spraying.  He said "You can sleep here. I took care of it."  I said no freaking way. I called the desk and she said she would have another room tomorrow, at which point I lost it and said "Tomorrow? I wouldn't stay another minute in this place Let me talk to the manager."  Of course the manager was not there and would not take my calls. So I calle dmy husband and then took another hot shower and when my dh got there we got packed up and left in 20 minutes. I stopped at the front desk where she refunded one night of my stay. Like that would make up for it. I told another guest about the problem and he promptly checked out.I have been so traumatized by this, it's insane. I ended up with fewer than 10 bites, but the horror of seeing those dead bugs was awful.  I can't imagine anyone staying here and I want to warn people I kept saying to the clerk it is a health hazard and she kept saying  they weren't bedbugs and I would have to prove it.  I pulled up my shirt and showed her my back and she just got mad.  I kept saying she needs to warn others so they don't get bitten, well they won't do it and the customer service won't take my calls or answer my letters.  I have no choice but to tell everyone I know not to stay here. I even contacted the local news and I will contact th health dept at the City of Houston.  This is disgusting. Save your money and your sanity and stay somewhere else. Even the city park would be preferrable to this nightmare.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>My family and I checked into the ESA Houston/Greenway Plaza on a recent Thursday night, we had booked the place for a month because we recently sold our house and were waiting to close on a new property. Upon arrival we were told that our room was a smoking room, even though I requested a non-smoking room, being worn out and tired I didn't argue becuase the desk clerk, Jean, told me we could switch rooms in the morning.  We were startled when a kinda nutty looking woman stormed into the lobby saying that she was leaving because the room she was in was swarming with bugs. I thought she was just nuts.  But I should have listened to her, she was right!
+The first couple days were pretty good, the maid came and cleaned up and we had a little kitchenette so we could cook and I could homeschool my son at the table in the room. We liked the location by shops and restaurants and close to the zoo. We thougth it would be ideal.  NOT!  It turned into a nightmare. First of all the bathroom sink leaked and I had to use a bathtowel to stop the leak. I went to the lobby to get a new towel and told the clerk what happened and she said she would have to charge me for a new towel. I told her NO WAY, that I was using the...My family and I checked into the ESA Houston/Greenway Plaza on a recent Thursday night, we had booked the place for a month because we recently sold our house and were waiting to close on a new property. Upon arrival we were told that our room was a smoking room, even though I requested a non-smoking room, being worn out and tired I didn't argue becuase the desk clerk, Jean, told me we could switch rooms in the morning.  We were startled when a kinda nutty looking woman stormed into the lobby saying that she was leaving because the room she was in was swarming with bugs. I thought she was just nuts.  But I should have listened to her, she was right!The first couple days were pretty good, the maid came and cleaned up and we had a little kitchenette so we could cook and I could homeschool my son at the table in the room. We liked the location by shops and restaurants and close to the zoo. We thougth it would be ideal.  NOT!  It turned into a nightmare. First of all the bathroom sink leaked and I had to use a bathtowel to stop the leak. I went to the lobby to get a new towel and told the clerk what happened and she said she would have to charge me for a new towel. I told her NO WAY, that I was using the towel to stop a leak! She didn't even say they would fix the leak. So the next day I called to complain and they did send someone to fix it.  In the meantime we visited friends who have a house by the bayou and that night I was itchy. I thought it was mosquito bites from being by the bayou. I was the only one in the family itching so I didn't think anything of it.  By the next day I was really itchy. I took a shower and took some benadryl. I noticed at this time some little flying bugs that I thougth were gnats. I called to report it and she said she would send the maitenance guy down. She did. He showed up with his poison and sprayed under the sink.  I was bitten by one of those suckers and I took the thing down to the lobby front desk to show the girl. Asked her if it was a bed bug and she said "I don't know, I don't think so."  So being an idiot, I went back to the room.  That night I called to make sure they cleaned the room the next day and I kept getting put off they kept saying they would get back to me and never did. After an itchy night I finally got pissed and took the sheets off. I was going to wash them myself and I found little bugs in the bed.  I was freaked out and screaming. I called the desk and they denyed bedbugs, but called the maitenance man to come spray. He picked up the mattress and said "Oh, senora, thees ees bad. Yah. Those are bedbugs". I started crying and he took out his poison and started spraying.  He said "You can sleep here. I took care of it."  I said no freaking way. I called the desk and she said she would have another room tomorrow, at which point I lost it and said "Tomorrow? I wouldn't stay another minute in this place Let me talk to the manager."  Of course the manager was not there and would not take my calls. So I calle dmy husband and then took another hot shower and when my dh got there we got packed up and left in 20 minutes. I stopped at the front desk where she refunded one night of my stay. Like that would make up for it. I told another guest about the problem and he promptly checked out.I have been so traumatized by this, it's insane. I ended up with fewer than 10 bites, but the horror of seeing those dead bugs was awful.  I can't imagine anyone staying here and I want to warn people I kept saying to the clerk it is a health hazard and she kept saying  they weren't bedbugs and I would have to prove it.  I pulled up my shirt and showed her my back and she just got mad.  I kept saying she needs to warn others so they don't get bitten, well they won't do it and the customer service won't take my calls or answer my letters.  I have no choice but to tell everyone I know not to stay here. I even contacted the local news and I will contact th health dept at the City of Houston.  This is disgusting. Save your money and your sanity and stay somewhere else. Even the city park would be preferrable to this nightmare.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r124763477-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124763477</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>Only the Front Desk is worth a positive mention</t>
+  </si>
+  <si>
+    <t>This property desparately needs a re-do. The room was just 1 degree above acceptable. Tired, worn-out..rather rank-smelling..The smoke from the other rooms on my floor was almost as bad as having a smoking room!.I realize that this is for people having extended stays and that itself creates specific challenges (I was only booked for 3 nights)...I asked for   the limited maid service just to freshen the room up a bit ( a reasonable $5.00 charge)since I was out a full day, looking forward to the bed at least being made when I returned...the room wasn't touched in my absence. I was told the $5.00 would be refunded (I have yet to see it on my statement)It isn't the money, it's the incompetence of handling such a simple request (arranging maid service) and not following through ....The ONLY reason I could possibly recommend this property is that the location is very good. The front staff was friendly . That is the only positive thing I can say. The elevator was old, creaky and a joke overall. Graffitti was on the advertisements on the elevator walls!...  I am sure it(the elevator) gets a large amount of use because of the in/out nature of the property and the amount of luggage, sacks,boxes etc that guests haul in and out, so I would recommend a 1st Floor room...Unless you really need an extended stay, I would avoid this property altogether.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Med. Ctr. - Greenway Plaza, responded to this reviewResponded March 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2012</t>
+  </si>
+  <si>
+    <t>This property desparately needs a re-do. The room was just 1 degree above acceptable. Tired, worn-out..rather rank-smelling..The smoke from the other rooms on my floor was almost as bad as having a smoking room!.I realize that this is for people having extended stays and that itself creates specific challenges (I was only booked for 3 nights)...I asked for   the limited maid service just to freshen the room up a bit ( a reasonable $5.00 charge)since I was out a full day, looking forward to the bed at least being made when I returned...the room wasn't touched in my absence. I was told the $5.00 would be refunded (I have yet to see it on my statement)It isn't the money, it's the incompetence of handling such a simple request (arranging maid service) and not following through ....The ONLY reason I could possibly recommend this property is that the location is very good. The front staff was friendly . That is the only positive thing I can say. The elevator was old, creaky and a joke overall. Graffitti was on the advertisements on the elevator walls!...  I am sure it(the elevator) gets a large amount of use because of the in/out nature of the property and the amount of luggage, sacks,boxes etc that guests haul in and out, so I would recommend a 1st Floor room...Unless you really need an extended stay, I would avoid this property altogether.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r116586811-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116586811</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Basic, no-nonsense hotel at a great location &amp; price</t>
+  </si>
+  <si>
+    <t>My first time at an Extended Stay America, and I'm pleased to say that it was just what I needed. Accessed off of a service road that runs parallel to Route 59, it's easy to get to as long as you know what exit to take. I was there 2 nights for a business seminar I was conducting at University of Houston.
+The hotel was clean and presentable, nothing pretentious, but not in any way a dump. Hotel has a small but neatly appointed lobby space. There is not really anything in the way of amenities here, but the rooms themselves were fine and covered the basics pretty well. If you need extra frills, like a pool, sauna, exercise room, business center, or continental breakfast, you should look elsewhere.
+I entered the lobby to the sounds of laughter coming from behind the front desk. I made the comment that I must have come to the fun part of town, with more laughter erupting. The front desk staff were very warm and friendly, and clearly enjoyed being there and helping their customers. The only awkward moment occurred about 15 minutes before checkout, when housekeeping knocked on the door to ask when I would be leaving. I said that I would be leaving in about 5 minutes, but instead of moving on to the next room, she asked if she could come in &amp; change the sheets, to which I consented. No...My first time at an Extended Stay America, and I'm pleased to say that it was just what I needed. Accessed off of a service road that runs parallel to Route 59, it's easy to get to as long as you know what exit to take. I was there 2 nights for a business seminar I was conducting at University of Houston.The hotel was clean and presentable, nothing pretentious, but not in any way a dump. Hotel has a small but neatly appointed lobby space. There is not really anything in the way of amenities here, but the rooms themselves were fine and covered the basics pretty well. If you need extra frills, like a pool, sauna, exercise room, business center, or continental breakfast, you should look elsewhere.I entered the lobby to the sounds of laughter coming from behind the front desk. I made the comment that I must have come to the fun part of town, with more laughter erupting. The front desk staff were very warm and friendly, and clearly enjoyed being there and helping their customers. The only awkward moment occurred about 15 minutes before checkout, when housekeeping knocked on the door to ask when I would be leaving. I said that I would be leaving in about 5 minutes, but instead of moving on to the next room, she asked if she could come in &amp; change the sheets, to which I consented. No big deal to me, but after the high-profile Dominique Strauss-Kahn scandal involving a hotel cleaning woman, I would think the hospitality industry would get smart and instruct their workers to take no obvious risks.The room I stayed in was on the third floor, facing the parking garage on the north side (away from the highway), so it was quiet. My neighbors were quiet...no disturbances other than the smell of steak cooking one evening, and that is going to happen in any apartment situation with kitchens. The suite itself was roomy, clean, and otherwise odor-free, offering 2 separate writing tables, a full bathroom and small kitchen with the basics covered (including a full-size fridge). The room had no enclosed closet, but there was an open closet space in the corner with a couple of built-in wire shelves w/ hangers for clothes, plus an iron &amp; ironing board. Didn't watch any TV, so I can't comment on that, but it was an older CRT TV, not a newer flat-screen. The bed seemed fine to me…firm, but comfortable enough for a good night's sleep. Wireless high-speed internet was a one-time fee of $5…sort of average speed, not great, but not horrible.This was my first visit to Houston. The area around the hotel has tons of great restaurants and shopping, and seems to be a reasonably decent part of town. About a 10-minute drive to Main Street, where there are some hip hangouts (Continental Club, Sig's Lagoon, Tacos a Go-Go, etc.). About a 5-minute drive to the Menil Collection, a free art museum definitely worth visiting. Also located 5-10 minutes from the Anvil Bar &amp; Refuge, with a fabulous selection of cocktails. Had I had more time, I would have enjoyed visiting many of the other great-looking places nearby.Overall, I have no complaints. Great price, decent place, fantastic location. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My first time at an Extended Stay America, and I'm pleased to say that it was just what I needed. Accessed off of a service road that runs parallel to Route 59, it's easy to get to as long as you know what exit to take. I was there 2 nights for a business seminar I was conducting at University of Houston.
+The hotel was clean and presentable, nothing pretentious, but not in any way a dump. Hotel has a small but neatly appointed lobby space. There is not really anything in the way of amenities here, but the rooms themselves were fine and covered the basics pretty well. If you need extra frills, like a pool, sauna, exercise room, business center, or continental breakfast, you should look elsewhere.
+I entered the lobby to the sounds of laughter coming from behind the front desk. I made the comment that I must have come to the fun part of town, with more laughter erupting. The front desk staff were very warm and friendly, and clearly enjoyed being there and helping their customers. The only awkward moment occurred about 15 minutes before checkout, when housekeeping knocked on the door to ask when I would be leaving. I said that I would be leaving in about 5 minutes, but instead of moving on to the next room, she asked if she could come in &amp; change the sheets, to which I consented. No...My first time at an Extended Stay America, and I'm pleased to say that it was just what I needed. Accessed off of a service road that runs parallel to Route 59, it's easy to get to as long as you know what exit to take. I was there 2 nights for a business seminar I was conducting at University of Houston.The hotel was clean and presentable, nothing pretentious, but not in any way a dump. Hotel has a small but neatly appointed lobby space. There is not really anything in the way of amenities here, but the rooms themselves were fine and covered the basics pretty well. If you need extra frills, like a pool, sauna, exercise room, business center, or continental breakfast, you should look elsewhere.I entered the lobby to the sounds of laughter coming from behind the front desk. I made the comment that I must have come to the fun part of town, with more laughter erupting. The front desk staff were very warm and friendly, and clearly enjoyed being there and helping their customers. The only awkward moment occurred about 15 minutes before checkout, when housekeeping knocked on the door to ask when I would be leaving. I said that I would be leaving in about 5 minutes, but instead of moving on to the next room, she asked if she could come in &amp; change the sheets, to which I consented. No big deal to me, but after the high-profile Dominique Strauss-Kahn scandal involving a hotel cleaning woman, I would think the hospitality industry would get smart and instruct their workers to take no obvious risks.The room I stayed in was on the third floor, facing the parking garage on the north side (away from the highway), so it was quiet. My neighbors were quiet...no disturbances other than the smell of steak cooking one evening, and that is going to happen in any apartment situation with kitchens. The suite itself was roomy, clean, and otherwise odor-free, offering 2 separate writing tables, a full bathroom and small kitchen with the basics covered (including a full-size fridge). The room had no enclosed closet, but there was an open closet space in the corner with a couple of built-in wire shelves w/ hangers for clothes, plus an iron &amp; ironing board. Didn't watch any TV, so I can't comment on that, but it was an older CRT TV, not a newer flat-screen. The bed seemed fine to me…firm, but comfortable enough for a good night's sleep. Wireless high-speed internet was a one-time fee of $5…sort of average speed, not great, but not horrible.This was my first visit to Houston. The area around the hotel has tons of great restaurants and shopping, and seems to be a reasonably decent part of town. About a 10-minute drive to Main Street, where there are some hip hangouts (Continental Club, Sig's Lagoon, Tacos a Go-Go, etc.). About a 5-minute drive to the Menil Collection, a free art museum definitely worth visiting. Also located 5-10 minutes from the Anvil Bar &amp; Refuge, with a fabulous selection of cocktails. Had I had more time, I would have enjoyed visiting many of the other great-looking places nearby.Overall, I have no complaints. Great price, decent place, fantastic location. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r114838723-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114838723</t>
+  </si>
+  <si>
+    <t>06/28/2011</t>
+  </si>
+  <si>
+    <t>I think Bette Davis said it best: 'What a dump!'</t>
+  </si>
+  <si>
+    <t>We were booked into this hotel by our insurance company after our house was nearly destroyed. We had the misfortune of staying here for nearly three months. Apparently lots of other people are there for similar reasons, all of us suffering together.
+To begin with, there is absolutely nothing to do in this hotel. There is no restaurant, no pool, no gym, no game room, no lobby... There aren't even any public spaces to sit outside. It's just you and your room that was last refurbished when the first Bush was in the White House. You don't even get decent cable channels: You get maybe a dozen (if you're lucky; it depends on your room), and you don't even get all the local channels. My husband was prompted to exclaim, "What kind of hotel doesn't even have ESPN?!?" Don't bother asking for a DVD player or a video game player. They don't have those either. Your only option for entertainment is trying to run across the freeway to the Hooters.
+Maid service is sketchy. They come when they want and do as much as they want. One week you might get soap, the next week not. Don't bother asking for anything; Nobody speaks English. Our room was supposed to be cleaned weekly but it usually only happened after I went to the manager and complained. Once the manager said, "You room was already cleaned today!" The maid had lied on...We were booked into this hotel by our insurance company after our house was nearly destroyed. We had the misfortune of staying here for nearly three months. Apparently lots of other people are there for similar reasons, all of us suffering together.To begin with, there is absolutely nothing to do in this hotel. There is no restaurant, no pool, no gym, no game room, no lobby... There aren't even any public spaces to sit outside. It's just you and your room that was last refurbished when the first Bush was in the White House. You don't even get decent cable channels: You get maybe a dozen (if you're lucky; it depends on your room), and you don't even get all the local channels. My husband was prompted to exclaim, "What kind of hotel doesn't even have ESPN?!?" Don't bother asking for a DVD player or a video game player. They don't have those either. Your only option for entertainment is trying to run across the freeway to the Hooters.Maid service is sketchy. They come when they want and do as much as they want. One week you might get soap, the next week not. Don't bother asking for anything; Nobody speaks English. Our room was supposed to be cleaned weekly but it usually only happened after I went to the manager and complained. Once the manager said, "You room was already cleaned today!" The maid had lied on the daily list of jobs to do, either that or she was too stupid to know which rooms she'd been in. So if you're staying for the long haul, buy your own cleaning supplies and do it yourself.There is a laundry room but it costs TWO DOLLARS per load, and the machines are small and dirty and likely to be broken. So do your own laundry, too.All the supplies in your room will be old and look like rejects from Goodwill. You'll be lucky if everything works properly. Our kitchen sink shot water into the air like a fountain even after they sent someone to repair it.Also, if cigarette smoke makes you sick avoid this place! Smokers are everywhere, and even if you're in a non-smoking room you can smell the smoke. The third floor is like sucking on the tail pipe of Al Bundy's old Dodge.What's good about this place? The staff at the front desk is very friendly and they don't bother you at all. Another long-timer was always wandering the halls letting her Chihuahua poop on the carpet and no one seemed to care. You can sit in your car and blast the stereo and smoke pot all night and no one cares.The location is convenient to just about anything in SW Houston, including Greenway Plaza, the Galleria and the Museum District. Make sure you have a car so you can get out and about. We brought our dogs with us and the hotel staff treated them kindly (which meant the world to us). There is a nice neighborhood behind the hotel where we could walk the dogs in peace.Bottom line: You get what you pay for. This place is fine for a night or two if all you're using it for is to sleep. But if you're planning an "extended stay," this place will have you contemplating suicide.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We were booked into this hotel by our insurance company after our house was nearly destroyed. We had the misfortune of staying here for nearly three months. Apparently lots of other people are there for similar reasons, all of us suffering together.
+To begin with, there is absolutely nothing to do in this hotel. There is no restaurant, no pool, no gym, no game room, no lobby... There aren't even any public spaces to sit outside. It's just you and your room that was last refurbished when the first Bush was in the White House. You don't even get decent cable channels: You get maybe a dozen (if you're lucky; it depends on your room), and you don't even get all the local channels. My husband was prompted to exclaim, "What kind of hotel doesn't even have ESPN?!?" Don't bother asking for a DVD player or a video game player. They don't have those either. Your only option for entertainment is trying to run across the freeway to the Hooters.
+Maid service is sketchy. They come when they want and do as much as they want. One week you might get soap, the next week not. Don't bother asking for anything; Nobody speaks English. Our room was supposed to be cleaned weekly but it usually only happened after I went to the manager and complained. Once the manager said, "You room was already cleaned today!" The maid had lied on...We were booked into this hotel by our insurance company after our house was nearly destroyed. We had the misfortune of staying here for nearly three months. Apparently lots of other people are there for similar reasons, all of us suffering together.To begin with, there is absolutely nothing to do in this hotel. There is no restaurant, no pool, no gym, no game room, no lobby... There aren't even any public spaces to sit outside. It's just you and your room that was last refurbished when the first Bush was in the White House. You don't even get decent cable channels: You get maybe a dozen (if you're lucky; it depends on your room), and you don't even get all the local channels. My husband was prompted to exclaim, "What kind of hotel doesn't even have ESPN?!?" Don't bother asking for a DVD player or a video game player. They don't have those either. Your only option for entertainment is trying to run across the freeway to the Hooters.Maid service is sketchy. They come when they want and do as much as they want. One week you might get soap, the next week not. Don't bother asking for anything; Nobody speaks English. Our room was supposed to be cleaned weekly but it usually only happened after I went to the manager and complained. Once the manager said, "You room was already cleaned today!" The maid had lied on the daily list of jobs to do, either that or she was too stupid to know which rooms she'd been in. So if you're staying for the long haul, buy your own cleaning supplies and do it yourself.There is a laundry room but it costs TWO DOLLARS per load, and the machines are small and dirty and likely to be broken. So do your own laundry, too.All the supplies in your room will be old and look like rejects from Goodwill. You'll be lucky if everything works properly. Our kitchen sink shot water into the air like a fountain even after they sent someone to repair it.Also, if cigarette smoke makes you sick avoid this place! Smokers are everywhere, and even if you're in a non-smoking room you can smell the smoke. The third floor is like sucking on the tail pipe of Al Bundy's old Dodge.What's good about this place? The staff at the front desk is very friendly and they don't bother you at all. Another long-timer was always wandering the halls letting her Chihuahua poop on the carpet and no one seemed to care. You can sit in your car and blast the stereo and smoke pot all night and no one cares.The location is convenient to just about anything in SW Houston, including Greenway Plaza, the Galleria and the Museum District. Make sure you have a car so you can get out and about. We brought our dogs with us and the hotel staff treated them kindly (which meant the world to us). There is a nice neighborhood behind the hotel where we could walk the dogs in peace.Bottom line: You get what you pay for. This place is fine for a night or two if all you're using it for is to sleep. But if you're planning an "extended stay," this place will have you contemplating suicide.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r100587830-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>100587830</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Affordable, big rooms, nice staff!</t>
+  </si>
+  <si>
+    <t>Nice and affordable hotel. Jami in the reception was very helpful and greeted us when we arrived. The room was big and had a kingsize bed, kitchen with all appliances, tv, two desks and AC. The AC was a bit noisy but we didn't care that much. The room appeared clean! Did not see any bed bugs! The nice girl in the reception called us after an hour to check if everything was fine in our room. Good service! We are only staying for one night, but would definitely stay here again. Affordable, big rooms, nice staff!</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r83165715-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>83165715</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>Good Value &amp; Location</t>
+  </si>
+  <si>
+    <t>Room smelled like stale cigarettes.  But, we opened the windows and burned a candle when we were in the room which helped alot.  Property is clean and staff is friendly.   Mattress needs to be replaced... big dip in the middle of the bed.  Location is very good.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r27702556-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27702556</t>
+  </si>
+  <si>
+    <t>04/09/2009</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here and will come back.</t>
+  </si>
+  <si>
+    <t>We found it easily. The outside appearance was attractive. There was a security guard there when we arrived. Tiffany checked us in and was very helpful and pleasant. Our room was clean. We enjoyed the kitchen. The bathroom and hallway was clean. When arriving after hours there was a security guard on duty. We felt completly safe. The location of the Hotel was just minutes away from Reliant Stadium. There were plenty of stores, fast food restaurants, and Pharmacies nearby. This was the best stay we have ever had in a hotel or motel. We are recommending this hotel to all our family and friends for trips to Houston.</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r22169819-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22169819</t>
+  </si>
+  <si>
+    <t>11/25/2008</t>
+  </si>
+  <si>
+    <t>Super Clean and Secure Extended Stay AMerica</t>
+  </si>
+  <si>
+    <t>The staff was very freindly on check in when I was in a big hurry due to being late, lost in traffic in a city I'm not use to.  I loved that the outside of the building was lit up so well I could see it from the busy busy south freeway of Houston.  It stood out from the rest and I was so relieved that THAT was MY hotel!  Upon arriving the check in was super smooth and I didn't even have time to change for my meeting.  I put my stuff in my super clean, looked like new room and was thinking "WOW, I can't wait to get back here and relax!"   The mini kitchen was a bonus to me, I used the coffee pot and the microwave and frig during my stay for my leftovers.  I knew I'd be rushing the last day so I bought breakfast at a nearby restaurant the day before and kept it in the frig until the next morning.  Put it in the microwave and had a nice breakfast while getting ready to go.
+The parking lot was well lit PLUS there was a security officer there at all times that I came and went, which was very reassuring as I did see some shadey people elsewhere in the city.  This hotel was very much upclass and I felt as though I was staying at the Waldorf Astoria considering the security and...The staff was very freindly on check in when I was in a big hurry due to being late, lost in traffic in a city I'm not use to.  I loved that the outside of the building was lit up so well I could see it from the busy busy south freeway of Houston.  It stood out from the rest and I was so relieved that THAT was MY hotel!  Upon arriving the check in was super smooth and I didn't even have time to change for my meeting.  I put my stuff in my super clean, looked like new room and was thinking "WOW, I can't wait to get back here and relax!"   The mini kitchen was a bonus to me, I used the coffee pot and the microwave and frig during my stay for my leftovers.  I knew I'd be rushing the last day so I bought breakfast at a nearby restaurant the day before and kept it in the frig until the next morning.  Put it in the microwave and had a nice breakfast while getting ready to go.The parking lot was well lit PLUS there was a security officer there at all times that I came and went, which was very reassuring as I did see some shadey people elsewhere in the city.  This hotel was very much upclass and I felt as though I was staying at the Waldorf Astoria considering the security and service.Outstanding facility and price.  I will always seek these hotels over anyother in any city for any reason, even my upcoming honeymoon.Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>The staff was very freindly on check in when I was in a big hurry due to being late, lost in traffic in a city I'm not use to.  I loved that the outside of the building was lit up so well I could see it from the busy busy south freeway of Houston.  It stood out from the rest and I was so relieved that THAT was MY hotel!  Upon arriving the check in was super smooth and I didn't even have time to change for my meeting.  I put my stuff in my super clean, looked like new room and was thinking "WOW, I can't wait to get back here and relax!"   The mini kitchen was a bonus to me, I used the coffee pot and the microwave and frig during my stay for my leftovers.  I knew I'd be rushing the last day so I bought breakfast at a nearby restaurant the day before and kept it in the frig until the next morning.  Put it in the microwave and had a nice breakfast while getting ready to go.
+The parking lot was well lit PLUS there was a security officer there at all times that I came and went, which was very reassuring as I did see some shadey people elsewhere in the city.  This hotel was very much upclass and I felt as though I was staying at the Waldorf Astoria considering the security and...The staff was very freindly on check in when I was in a big hurry due to being late, lost in traffic in a city I'm not use to.  I loved that the outside of the building was lit up so well I could see it from the busy busy south freeway of Houston.  It stood out from the rest and I was so relieved that THAT was MY hotel!  Upon arriving the check in was super smooth and I didn't even have time to change for my meeting.  I put my stuff in my super clean, looked like new room and was thinking "WOW, I can't wait to get back here and relax!"   The mini kitchen was a bonus to me, I used the coffee pot and the microwave and frig during my stay for my leftovers.  I knew I'd be rushing the last day so I bought breakfast at a nearby restaurant the day before and kept it in the frig until the next morning.  Put it in the microwave and had a nice breakfast while getting ready to go.The parking lot was well lit PLUS there was a security officer there at all times that I came and went, which was very reassuring as I did see some shadey people elsewhere in the city.  This hotel was very much upclass and I felt as though I was staying at the Waldorf Astoria considering the security and service.Outstanding facility and price.  I will always seek these hotels over anyother in any city for any reason, even my upcoming honeymoon.Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r4109820-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4109820</t>
+  </si>
+  <si>
+    <t>11/12/2005</t>
+  </si>
+  <si>
+    <t>Great Hotel to Stay At</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week, and it is very close to downtown Houston, staff are A+++ (esp. the blonde manager guy.. Elton?).  Whenever I asked a question, I had an answer, or if I needed service, it was there right away!I've stayed at other Extended Stay, but this one is nice and very clean.  Only one better is in Austin, TX because it's close to 6th Street.  It would be nice if there were a pool, but for being close to downtown and for the price and what it includes, it can't be beat.  I'll definitely do business with them again.</t>
+  </si>
+  <si>
+    <t>June 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r3397677-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3397677</t>
+  </si>
+  <si>
+    <t>04/21/2005</t>
+  </si>
+  <si>
+    <t>Hardest Hotel Bed I've Ever Had!</t>
+  </si>
+  <si>
+    <t>This is really really really convenient to everything inside the loop and very reasonable, and the staff is very nice. BUT... I stayed here one night and couldn't take any more ... the bed was like a rock and I might have gotten 3 hours sleep if that much. Very poor quality mattress, I have slept better in a Motel 6.  Other negatives were that hallways can be dim to the point of being downright creepy at night, and my recliner was broken (and didn't recline) but I don't care about that so much. I would suggest asking for a front view though, as almost half of the rooms face a parking garage.Pros are price and location, and the fact that my the room was very clean and amenable otherwise. The kitchen in particular was *spotless* and you hardly ever see that in a home-away-from-home style place.  If you do like an untra-firm mattress, this may well be the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2005</t>
+  </si>
+  <si>
+    <t>This is really really really convenient to everything inside the loop and very reasonable, and the staff is very nice. BUT... I stayed here one night and couldn't take any more ... the bed was like a rock and I might have gotten 3 hours sleep if that much. Very poor quality mattress, I have slept better in a Motel 6.  Other negatives were that hallways can be dim to the point of being downright creepy at night, and my recliner was broken (and didn't recline) but I don't care about that so much. I would suggest asking for a front view though, as almost half of the rooms face a parking garage.Pros are price and location, and the fact that my the room was very clean and amenable otherwise. The kitchen in particular was *spotless* and you hardly ever see that in a home-away-from-home style place.  If you do like an untra-firm mattress, this may well be the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107990-r983828-Extended_Stay_America_Houston_Med_Ctr_Greenway_Plaza-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>983828</t>
+  </si>
+  <si>
+    <t>04/26/2003</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The week-long rates are great and you can't beat the location here: inside the loop right in the middle of everything, easy to get to anywhere you want to go.  It's right on the freeway so if you don't like freeway noise, stay somewhere else.  Me personally, I like freeway noise because it drowns out everything else.  The room was spacious and the full kitchen was _very_ convenient.  My only complaint was that there was a funky smell coming out of the vent in my room.  I complained and all they did was spray room deoderizer everywhere which made it worse.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2388,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2420,5227 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" t="s">
+        <v>274</v>
+      </c>
+      <c r="K28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>276</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>286</v>
+      </c>
+      <c r="X30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>286</v>
+      </c>
+      <c r="X31" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>306</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>320</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" t="s">
+        <v>345</v>
+      </c>
+      <c r="K38" t="s">
+        <v>346</v>
+      </c>
+      <c r="L38" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>349</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>350</v>
+      </c>
+      <c r="J39" t="s">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s">
+        <v>352</v>
+      </c>
+      <c r="L39" t="s">
+        <v>353</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>354</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" t="s">
+        <v>359</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>360</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s">
+        <v>366</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>367</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>368</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>369</v>
+      </c>
+      <c r="J42" t="s">
+        <v>370</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>374</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>375</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>377</v>
+      </c>
+      <c r="L43" t="s">
+        <v>378</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>381</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" t="s">
+        <v>389</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>390</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>392</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>393</v>
+      </c>
+      <c r="J46" t="s">
+        <v>394</v>
+      </c>
+      <c r="K46" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" t="s">
+        <v>396</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>398</v>
+      </c>
+      <c r="J47" t="s">
+        <v>399</v>
+      </c>
+      <c r="K47" t="s">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s">
+        <v>401</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>402</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>403</v>
+      </c>
+      <c r="X47" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>418</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>419</v>
+      </c>
+      <c r="X49" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>422</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>423</v>
+      </c>
+      <c r="J50" t="s">
+        <v>424</v>
+      </c>
+      <c r="K50" t="s">
+        <v>425</v>
+      </c>
+      <c r="L50" t="s">
+        <v>426</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>427</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" t="s">
+        <v>430</v>
+      </c>
+      <c r="K51" t="s">
+        <v>431</v>
+      </c>
+      <c r="L51" t="s">
+        <v>432</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>434</v>
+      </c>
+      <c r="X51" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>438</v>
+      </c>
+      <c r="J52" t="s">
+        <v>439</v>
+      </c>
+      <c r="K52" t="s">
+        <v>440</v>
+      </c>
+      <c r="L52" t="s">
+        <v>441</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>443</v>
+      </c>
+      <c r="X52" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>446</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>447</v>
+      </c>
+      <c r="J53" t="s">
+        <v>448</v>
+      </c>
+      <c r="K53" t="s">
+        <v>449</v>
+      </c>
+      <c r="L53" t="s">
+        <v>450</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>451</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>452</v>
+      </c>
+      <c r="X53" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>455</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>456</v>
+      </c>
+      <c r="J54" t="s">
+        <v>457</v>
+      </c>
+      <c r="K54" t="s">
+        <v>458</v>
+      </c>
+      <c r="L54" t="s">
+        <v>459</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>460</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>461</v>
+      </c>
+      <c r="X54" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>465</v>
+      </c>
+      <c r="J55" t="s">
+        <v>466</v>
+      </c>
+      <c r="K55" t="s">
+        <v>467</v>
+      </c>
+      <c r="L55" t="s">
+        <v>468</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>2</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>477</v>
+      </c>
+      <c r="X56" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>481</v>
+      </c>
+      <c r="J57" t="s">
+        <v>482</v>
+      </c>
+      <c r="K57" t="s">
+        <v>483</v>
+      </c>
+      <c r="L57" t="s">
+        <v>484</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>485</v>
+      </c>
+      <c r="X57" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>489</v>
+      </c>
+      <c r="J58" t="s">
+        <v>490</v>
+      </c>
+      <c r="K58" t="s">
+        <v>491</v>
+      </c>
+      <c r="L58" t="s">
+        <v>492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>493</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>494</v>
+      </c>
+      <c r="X58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>502</v>
+      </c>
+      <c r="X59" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>505</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>506</v>
+      </c>
+      <c r="J60" t="s">
+        <v>507</v>
+      </c>
+      <c r="K60" t="s">
+        <v>508</v>
+      </c>
+      <c r="L60" t="s">
+        <v>509</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>502</v>
+      </c>
+      <c r="X60" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>511</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>512</v>
+      </c>
+      <c r="J61" t="s">
+        <v>513</v>
+      </c>
+      <c r="K61" t="s">
+        <v>514</v>
+      </c>
+      <c r="L61" t="s">
+        <v>515</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>516</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>517</v>
+      </c>
+      <c r="X61" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>520</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>521</v>
+      </c>
+      <c r="J62" t="s">
+        <v>522</v>
+      </c>
+      <c r="K62" t="s">
+        <v>523</v>
+      </c>
+      <c r="L62" t="s">
+        <v>524</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>525</v>
+      </c>
+      <c r="O62" t="s">
+        <v>88</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>526</v>
+      </c>
+      <c r="X62" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>529</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>530</v>
+      </c>
+      <c r="J63" t="s">
+        <v>531</v>
+      </c>
+      <c r="K63" t="s">
+        <v>532</v>
+      </c>
+      <c r="L63" t="s">
+        <v>533</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>525</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>534</v>
+      </c>
+      <c r="X63" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>537</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J64" t="s">
+        <v>539</v>
+      </c>
+      <c r="K64" t="s">
+        <v>540</v>
+      </c>
+      <c r="L64" t="s">
+        <v>541</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>525</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>542</v>
+      </c>
+      <c r="X64" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>545</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>546</v>
+      </c>
+      <c r="J65" t="s">
+        <v>547</v>
+      </c>
+      <c r="K65" t="s">
+        <v>548</v>
+      </c>
+      <c r="L65" t="s">
+        <v>549</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>550</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>551</v>
+      </c>
+      <c r="X65" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>554</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>555</v>
+      </c>
+      <c r="J66" t="s">
+        <v>547</v>
+      </c>
+      <c r="K66" t="s">
+        <v>556</v>
+      </c>
+      <c r="L66" t="s">
+        <v>557</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>558</v>
+      </c>
+      <c r="X66" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>561</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>562</v>
+      </c>
+      <c r="J67" t="s">
+        <v>563</v>
+      </c>
+      <c r="K67" t="s">
+        <v>564</v>
+      </c>
+      <c r="L67" t="s">
+        <v>565</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>566</v>
+      </c>
+      <c r="X67" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>569</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>570</v>
+      </c>
+      <c r="J68" t="s">
+        <v>571</v>
+      </c>
+      <c r="K68" t="s">
+        <v>572</v>
+      </c>
+      <c r="L68" t="s">
+        <v>573</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>574</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>575</v>
+      </c>
+      <c r="X68" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>578</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>579</v>
+      </c>
+      <c r="J69" t="s">
+        <v>580</v>
+      </c>
+      <c r="K69" t="s">
+        <v>581</v>
+      </c>
+      <c r="L69" t="s">
+        <v>582</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>583</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>575</v>
+      </c>
+      <c r="X69" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>585</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>586</v>
+      </c>
+      <c r="J70" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s">
+        <v>589</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>590</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>591</v>
+      </c>
+      <c r="X70" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>594</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>595</v>
+      </c>
+      <c r="J71" t="s">
+        <v>596</v>
+      </c>
+      <c r="K71" t="s">
+        <v>597</v>
+      </c>
+      <c r="L71" t="s">
+        <v>598</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>599</v>
+      </c>
+      <c r="O71" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>601</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>602</v>
+      </c>
+      <c r="J72" t="s">
+        <v>603</v>
+      </c>
+      <c r="K72" t="s">
+        <v>604</v>
+      </c>
+      <c r="L72" t="s">
+        <v>605</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>606</v>
+      </c>
+      <c r="O72" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>608</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>609</v>
+      </c>
+      <c r="J73" t="s">
+        <v>610</v>
+      </c>
+      <c r="K73" t="s">
+        <v>611</v>
+      </c>
+      <c r="L73" t="s">
+        <v>612</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>613</v>
+      </c>
+      <c r="O73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>614</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>615</v>
+      </c>
+      <c r="J74" t="s">
+        <v>616</v>
+      </c>
+      <c r="K74" t="s">
+        <v>617</v>
+      </c>
+      <c r="L74" t="s">
+        <v>618</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>619</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>620</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>621</v>
+      </c>
+      <c r="J75" t="s">
+        <v>622</v>
+      </c>
+      <c r="K75" t="s">
+        <v>623</v>
+      </c>
+      <c r="L75" t="s">
+        <v>624</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>625</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>626</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>627</v>
+      </c>
+      <c r="J76" t="s">
+        <v>628</v>
+      </c>
+      <c r="K76" t="s">
+        <v>629</v>
+      </c>
+      <c r="L76" t="s">
+        <v>630</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>631</v>
+      </c>
+      <c r="O76" t="s">
+        <v>79</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>633</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>634</v>
+      </c>
+      <c r="J77" t="s">
+        <v>635</v>
+      </c>
+      <c r="K77" t="s">
+        <v>636</v>
+      </c>
+      <c r="L77" t="s">
+        <v>637</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>638</v>
+      </c>
+      <c r="O77" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>639</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>640</v>
+      </c>
+      <c r="J78" t="s">
+        <v>641</v>
+      </c>
+      <c r="K78" t="s">
+        <v>642</v>
+      </c>
+      <c r="L78" t="s">
+        <v>643</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>644</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37005</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>646</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>647</v>
+      </c>
+      <c r="J79" t="s">
+        <v>648</v>
+      </c>
+      <c r="K79" t="s">
+        <v>649</v>
+      </c>
+      <c r="L79" t="s">
+        <v>650</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
